--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_16ha_100ha_10%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_16ha_100ha_10%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -5377,28 +5377,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2261.742778003585</v>
+        <v>2780.398754686782</v>
       </c>
       <c r="AB2" t="n">
-        <v>3094.616249913855</v>
+        <v>3804.264238698643</v>
       </c>
       <c r="AC2" t="n">
-        <v>2799.270418343146</v>
+        <v>3441.190599075494</v>
       </c>
       <c r="AD2" t="n">
-        <v>2261742.778003586</v>
+        <v>2780398.754686783</v>
       </c>
       <c r="AE2" t="n">
-        <v>3094616.249913855</v>
+        <v>3804264.238698643</v>
       </c>
       <c r="AF2" t="n">
         <v>1.50920924235398e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>105</v>
+        <v>104.0104166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2799270.418343145</v>
+        <v>3441190.599075494</v>
       </c>
     </row>
     <row r="3">
@@ -5483,28 +5483,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1632.753275417586</v>
+        <v>2043.768672515875</v>
       </c>
       <c r="AB3" t="n">
-        <v>2234.00506341709</v>
+        <v>2796.374462446544</v>
       </c>
       <c r="AC3" t="n">
-        <v>2020.794755610362</v>
+        <v>2529.492408486854</v>
       </c>
       <c r="AD3" t="n">
-        <v>1632753.275417586</v>
+        <v>2043768.672515875</v>
       </c>
       <c r="AE3" t="n">
-        <v>2234005.06341709</v>
+        <v>2796374.462446544</v>
       </c>
       <c r="AF3" t="n">
         <v>1.948634368587073e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>81</v>
+        <v>80.546875</v>
       </c>
       <c r="AH3" t="n">
-        <v>2020794.755610361</v>
+        <v>2529492.408486854</v>
       </c>
     </row>
     <row r="4">
@@ -5589,28 +5589,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1461.2761529521</v>
+        <v>1833.171630387776</v>
       </c>
       <c r="AB4" t="n">
-        <v>1999.382499423082</v>
+        <v>2508.226298521099</v>
       </c>
       <c r="AC4" t="n">
-        <v>1808.564239829105</v>
+        <v>2268.844700907964</v>
       </c>
       <c r="AD4" t="n">
-        <v>1461276.1529521</v>
+        <v>1833171.630387776</v>
       </c>
       <c r="AE4" t="n">
-        <v>1999382.499423082</v>
+        <v>2508226.298521099</v>
       </c>
       <c r="AF4" t="n">
         <v>2.124139233158567e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>74</v>
+        <v>73.88020833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1808564.239829105</v>
+        <v>2268844.700907964</v>
       </c>
     </row>
     <row r="5">
@@ -5695,28 +5695,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1384.187821157703</v>
+        <v>1746.26061190425</v>
       </c>
       <c r="AB5" t="n">
-        <v>1893.906842964813</v>
+        <v>2389.31080878841</v>
       </c>
       <c r="AC5" t="n">
-        <v>1713.155031987199</v>
+        <v>2161.278338616425</v>
       </c>
       <c r="AD5" t="n">
-        <v>1384187.821157703</v>
+        <v>1746260.61190425</v>
       </c>
       <c r="AE5" t="n">
-        <v>1893906.842964813</v>
+        <v>2389310.80878841</v>
       </c>
       <c r="AF5" t="n">
         <v>2.216532419074811e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>71</v>
+        <v>70.80729166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1713155.031987199</v>
+        <v>2161278.338616425</v>
       </c>
     </row>
     <row r="6">
@@ -5801,28 +5801,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1335.516323600598</v>
+        <v>1687.800593076796</v>
       </c>
       <c r="AB6" t="n">
-        <v>1827.312352772253</v>
+        <v>2309.32323195468</v>
       </c>
       <c r="AC6" t="n">
-        <v>1652.916226472664</v>
+        <v>2088.924663852436</v>
       </c>
       <c r="AD6" t="n">
-        <v>1335516.323600598</v>
+        <v>1687800.593076796</v>
       </c>
       <c r="AE6" t="n">
-        <v>1827312.352772253</v>
+        <v>2309323.23195468</v>
       </c>
       <c r="AF6" t="n">
         <v>2.275114399968867e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>69</v>
+        <v>68.984375</v>
       </c>
       <c r="AH6" t="n">
-        <v>1652916.226472663</v>
+        <v>2088924.663852436</v>
       </c>
     </row>
     <row r="7">
@@ -5907,28 +5907,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1303.092144181137</v>
+        <v>1645.622057805767</v>
       </c>
       <c r="AB7" t="n">
-        <v>1782.948160036707</v>
+        <v>2251.61269921121</v>
       </c>
       <c r="AC7" t="n">
-        <v>1612.786090026262</v>
+        <v>2036.721943356763</v>
       </c>
       <c r="AD7" t="n">
-        <v>1303092.144181137</v>
+        <v>1645622.057805767</v>
       </c>
       <c r="AE7" t="n">
-        <v>1782948.160036707</v>
+        <v>2251612.69921121</v>
       </c>
       <c r="AF7" t="n">
         <v>2.318628998945728e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>68</v>
+        <v>67.68229166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1612786.090026262</v>
+        <v>2036721.943356763</v>
       </c>
     </row>
     <row r="8">
@@ -6013,28 +6013,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1280.132813285062</v>
+        <v>1622.628561490912</v>
       </c>
       <c r="AB8" t="n">
-        <v>1751.534190610505</v>
+        <v>2220.15198315176</v>
       </c>
       <c r="AC8" t="n">
-        <v>1584.370225752314</v>
+        <v>2008.263793882634</v>
       </c>
       <c r="AD8" t="n">
-        <v>1280132.813285062</v>
+        <v>1622628.561490912</v>
       </c>
       <c r="AE8" t="n">
-        <v>1751534.190610505</v>
+        <v>2220151.98315176</v>
       </c>
       <c r="AF8" t="n">
         <v>2.343580583400604e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>67</v>
+        <v>66.97916666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1584370.225752314</v>
+        <v>2008263.793882634</v>
       </c>
     </row>
     <row r="9">
@@ -6119,28 +6119,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1266.625181062314</v>
+        <v>1599.299253608891</v>
       </c>
       <c r="AB9" t="n">
-        <v>1733.052452288665</v>
+        <v>2188.231794891155</v>
       </c>
       <c r="AC9" t="n">
-        <v>1567.652358596627</v>
+        <v>1979.390023589355</v>
       </c>
       <c r="AD9" t="n">
-        <v>1266625.181062314</v>
+        <v>1599299.253608891</v>
       </c>
       <c r="AE9" t="n">
-        <v>1733052.452288665</v>
+        <v>2188231.794891154</v>
       </c>
       <c r="AF9" t="n">
         <v>2.366000847693391e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>67</v>
+        <v>66.328125</v>
       </c>
       <c r="AH9" t="n">
-        <v>1567652.358596627</v>
+        <v>1979390.023589355</v>
       </c>
     </row>
     <row r="10">
@@ -6225,28 +6225,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1246.012669121326</v>
+        <v>1578.754061475609</v>
       </c>
       <c r="AB10" t="n">
-        <v>1704.849504091159</v>
+        <v>2160.12095662449</v>
       </c>
       <c r="AC10" t="n">
-        <v>1542.141060192005</v>
+        <v>1953.962044273052</v>
       </c>
       <c r="AD10" t="n">
-        <v>1246012.669121326</v>
+        <v>1578754.061475609</v>
       </c>
       <c r="AE10" t="n">
-        <v>1704849.504091159</v>
+        <v>2160120.95662449</v>
       </c>
       <c r="AF10" t="n">
         <v>2.382092811580955e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>66</v>
+        <v>65.88541666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>1542141.060192005</v>
+        <v>1953962.044273052</v>
       </c>
     </row>
     <row r="11">
@@ -6331,28 +6331,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1236.926326059262</v>
+        <v>1569.566233187059</v>
       </c>
       <c r="AB11" t="n">
-        <v>1692.417168652477</v>
+        <v>2147.549764621719</v>
       </c>
       <c r="AC11" t="n">
-        <v>1530.895249398699</v>
+        <v>1942.590629191247</v>
       </c>
       <c r="AD11" t="n">
-        <v>1236926.326059262</v>
+        <v>1569566.233187058</v>
       </c>
       <c r="AE11" t="n">
-        <v>1692417.168652477</v>
+        <v>2147549.764621719</v>
       </c>
       <c r="AF11" t="n">
         <v>2.397160193498151e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>66</v>
+        <v>65.46875</v>
       </c>
       <c r="AH11" t="n">
-        <v>1530895.249398699</v>
+        <v>1942590.629191247</v>
       </c>
     </row>
     <row r="12">
@@ -6437,28 +6437,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1226.486387127003</v>
+        <v>1549.406103822013</v>
       </c>
       <c r="AB12" t="n">
-        <v>1678.132783627761</v>
+        <v>2119.965786222327</v>
       </c>
       <c r="AC12" t="n">
-        <v>1517.974146032481</v>
+        <v>1917.639226975936</v>
       </c>
       <c r="AD12" t="n">
-        <v>1226486.387127003</v>
+        <v>1549406.103822013</v>
       </c>
       <c r="AE12" t="n">
-        <v>1678132.783627761</v>
+        <v>2119965.786222327</v>
       </c>
       <c r="AF12" t="n">
         <v>2.409877063836264e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>66</v>
+        <v>65.13020833333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>1517974.146032481</v>
+        <v>1917639.226975936</v>
       </c>
     </row>
     <row r="13">
@@ -6543,28 +6543,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1206.244950896697</v>
+        <v>1538.952177832198</v>
       </c>
       <c r="AB13" t="n">
-        <v>1650.437557588314</v>
+        <v>2105.662263488397</v>
       </c>
       <c r="AC13" t="n">
-        <v>1492.922113495745</v>
+        <v>1904.700812376612</v>
       </c>
       <c r="AD13" t="n">
-        <v>1206244.950896697</v>
+        <v>1538952.177832198</v>
       </c>
       <c r="AE13" t="n">
-        <v>1650437.557588314</v>
+        <v>2105662.263488397</v>
       </c>
       <c r="AF13" t="n">
         <v>2.421870699842352e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>65</v>
+        <v>64.81770833333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>1492922.113495745</v>
+        <v>1904700.812376612</v>
       </c>
     </row>
     <row r="14">
@@ -6649,28 +6649,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1201.99317170361</v>
+        <v>1534.700398639111</v>
       </c>
       <c r="AB14" t="n">
-        <v>1644.620085721073</v>
+        <v>2099.844791621156</v>
       </c>
       <c r="AC14" t="n">
-        <v>1487.65985297864</v>
+        <v>1899.438551859507</v>
       </c>
       <c r="AD14" t="n">
-        <v>1201993.17170361</v>
+        <v>1534700.398639111</v>
       </c>
       <c r="AE14" t="n">
-        <v>1644620.085721073</v>
+        <v>2099844.791621156</v>
       </c>
       <c r="AF14" t="n">
         <v>2.426451183945179e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>65</v>
+        <v>64.6875</v>
       </c>
       <c r="AH14" t="n">
-        <v>1487659.85297864</v>
+        <v>1899438.551859507</v>
       </c>
     </row>
     <row r="15">
@@ -6755,28 +6755,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1194.044575308517</v>
+        <v>1517.031611811231</v>
       </c>
       <c r="AB15" t="n">
-        <v>1633.744465465982</v>
+        <v>2075.669577991389</v>
       </c>
       <c r="AC15" t="n">
-        <v>1477.822186656666</v>
+        <v>1877.57058668844</v>
       </c>
       <c r="AD15" t="n">
-        <v>1194044.575308517</v>
+        <v>1517031.611811231</v>
       </c>
       <c r="AE15" t="n">
-        <v>1633744.465465982</v>
+        <v>2075669.577991389</v>
       </c>
       <c r="AF15" t="n">
         <v>2.432176789073714e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>65</v>
+        <v>64.53125</v>
       </c>
       <c r="AH15" t="n">
-        <v>1477822.186656666</v>
+        <v>1877570.58668844</v>
       </c>
     </row>
     <row r="16">
@@ -6861,28 +6861,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1182.813683954152</v>
+        <v>1505.699235230382</v>
       </c>
       <c r="AB16" t="n">
-        <v>1618.377864442983</v>
+        <v>2060.164120404301</v>
       </c>
       <c r="AC16" t="n">
-        <v>1463.922152468142</v>
+        <v>1863.544948211417</v>
       </c>
       <c r="AD16" t="n">
-        <v>1182813.683954152</v>
+        <v>1505699.235230382</v>
       </c>
       <c r="AE16" t="n">
-        <v>1618377.864442983</v>
+        <v>2060164.120404301</v>
       </c>
       <c r="AF16" t="n">
         <v>2.445556624216183e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>65</v>
+        <v>64.16666666666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>1463922.152468142</v>
+        <v>1863544.948211417</v>
       </c>
     </row>
     <row r="17">
@@ -6967,28 +6967,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1175.020053962608</v>
+        <v>1497.905605238838</v>
       </c>
       <c r="AB17" t="n">
-        <v>1607.714276057864</v>
+        <v>2049.500532019182</v>
       </c>
       <c r="AC17" t="n">
-        <v>1454.276281992059</v>
+        <v>1853.899077735334</v>
       </c>
       <c r="AD17" t="n">
-        <v>1175020.053962609</v>
+        <v>1497905.605238838</v>
       </c>
       <c r="AE17" t="n">
-        <v>1607714.276057864</v>
+        <v>2049500.532019182</v>
       </c>
       <c r="AF17" t="n">
         <v>2.450317916902017e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>65</v>
+        <v>64.0625</v>
       </c>
       <c r="AH17" t="n">
-        <v>1454276.281992059</v>
+        <v>1853899.077735333</v>
       </c>
     </row>
     <row r="18">
@@ -7073,28 +7073,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1172.534141270658</v>
+        <v>1495.419692546887</v>
       </c>
       <c r="AB18" t="n">
-        <v>1604.312940642009</v>
+        <v>2046.099196603328</v>
       </c>
       <c r="AC18" t="n">
-        <v>1451.199565254489</v>
+        <v>1850.822360997764</v>
       </c>
       <c r="AD18" t="n">
-        <v>1172534.141270658</v>
+        <v>1495419.692546887</v>
       </c>
       <c r="AE18" t="n">
-        <v>1604312.940642009</v>
+        <v>2046099.196603328</v>
       </c>
       <c r="AF18" t="n">
         <v>2.450920612178705e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>65</v>
+        <v>64.03645833333333</v>
       </c>
       <c r="AH18" t="n">
-        <v>1451199.565254489</v>
+        <v>1850822.360997764</v>
       </c>
     </row>
     <row r="19">
@@ -7179,28 +7179,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1155.840813328514</v>
+        <v>1478.793684412448</v>
       </c>
       <c r="AB19" t="n">
-        <v>1581.472392893916</v>
+        <v>2023.350758786075</v>
       </c>
       <c r="AC19" t="n">
-        <v>1430.538887326564</v>
+        <v>1830.245002158157</v>
       </c>
       <c r="AD19" t="n">
-        <v>1155840.813328514</v>
+        <v>1478793.684412448</v>
       </c>
       <c r="AE19" t="n">
-        <v>1581472.392893916</v>
+        <v>2023350.758786075</v>
       </c>
       <c r="AF19" t="n">
         <v>2.45610379155822e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>64</v>
+        <v>63.90625</v>
       </c>
       <c r="AH19" t="n">
-        <v>1430538.887326564</v>
+        <v>1830245.002158157</v>
       </c>
     </row>
     <row r="20">
@@ -7285,28 +7285,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1157.181646280749</v>
+        <v>1480.134517364683</v>
       </c>
       <c r="AB20" t="n">
-        <v>1583.306979692538</v>
+        <v>2025.185345584698</v>
       </c>
       <c r="AC20" t="n">
-        <v>1432.198383735984</v>
+        <v>1831.904498567578</v>
       </c>
       <c r="AD20" t="n">
-        <v>1157181.646280749</v>
+        <v>1480134.517364683</v>
       </c>
       <c r="AE20" t="n">
-        <v>1583306.979692538</v>
+        <v>2025185.345584698</v>
       </c>
       <c r="AF20" t="n">
         <v>2.455199748643188e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>64</v>
+        <v>63.93229166666666</v>
       </c>
       <c r="AH20" t="n">
-        <v>1432198.383735984</v>
+        <v>1831904.498567578</v>
       </c>
     </row>
     <row r="21">
@@ -7391,28 +7391,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>1158.86485019718</v>
+        <v>1481.817721281114</v>
       </c>
       <c r="AB21" t="n">
-        <v>1585.610013548716</v>
+        <v>2027.488379440876</v>
       </c>
       <c r="AC21" t="n">
-        <v>1434.281619273257</v>
+        <v>1833.987734104851</v>
       </c>
       <c r="AD21" t="n">
-        <v>1158864.85019718</v>
+        <v>1481817.721281114</v>
       </c>
       <c r="AE21" t="n">
-        <v>1585610.013548716</v>
+        <v>2027488.379440876</v>
       </c>
       <c r="AF21" t="n">
         <v>2.455199748643188e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>64</v>
+        <v>63.93229166666666</v>
       </c>
       <c r="AH21" t="n">
-        <v>1434281.619273257</v>
+        <v>1833987.734104851</v>
       </c>
     </row>
   </sheetData>
@@ -7688,28 +7688,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1860.613803004024</v>
+        <v>2325.11034614517</v>
       </c>
       <c r="AB2" t="n">
-        <v>2545.773889757862</v>
+        <v>3181.31855222498</v>
       </c>
       <c r="AC2" t="n">
-        <v>2302.808802735467</v>
+        <v>2877.697974609138</v>
       </c>
       <c r="AD2" t="n">
-        <v>1860613.803004025</v>
+        <v>2325110.34614517</v>
       </c>
       <c r="AE2" t="n">
-        <v>2545773.889757862</v>
+        <v>3181318.55222498</v>
       </c>
       <c r="AF2" t="n">
         <v>1.845167927836426e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>94</v>
+        <v>93.07291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2302808.802735467</v>
+        <v>2877697.974609138</v>
       </c>
     </row>
     <row r="3">
@@ -7794,28 +7794,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1424.392869220784</v>
+        <v>1801.865955237439</v>
       </c>
       <c r="AB3" t="n">
-        <v>1948.917163446258</v>
+        <v>2465.392492671495</v>
       </c>
       <c r="AC3" t="n">
-        <v>1762.915244689365</v>
+        <v>2230.098893371022</v>
       </c>
       <c r="AD3" t="n">
-        <v>1424392.869220784</v>
+        <v>1801865.955237439</v>
       </c>
       <c r="AE3" t="n">
-        <v>1948917.163446258</v>
+        <v>2465392.492671495</v>
       </c>
       <c r="AF3" t="n">
         <v>2.271376659702289e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>76</v>
+        <v>75.59895833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1762915.244689365</v>
+        <v>2230098.893371022</v>
       </c>
     </row>
     <row r="4">
@@ -7900,28 +7900,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1303.162251204927</v>
+        <v>1651.627855190038</v>
       </c>
       <c r="AB4" t="n">
-        <v>1783.04408355956</v>
+        <v>2259.83009614945</v>
       </c>
       <c r="AC4" t="n">
-        <v>1612.872858742724</v>
+        <v>2044.155083464406</v>
       </c>
       <c r="AD4" t="n">
-        <v>1303162.251204927</v>
+        <v>1651627.855190038</v>
       </c>
       <c r="AE4" t="n">
-        <v>1783044.083559561</v>
+        <v>2259830.09614945</v>
       </c>
       <c r="AF4" t="n">
         <v>2.434395069909996e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>71</v>
+        <v>70.546875</v>
       </c>
       <c r="AH4" t="n">
-        <v>1612872.858742724</v>
+        <v>2044155.083464406</v>
       </c>
     </row>
     <row r="5">
@@ -8006,28 +8006,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1249.077158822109</v>
+        <v>1587.760728430627</v>
       </c>
       <c r="AB5" t="n">
-        <v>1709.042474095513</v>
+        <v>2172.444275698449</v>
       </c>
       <c r="AC5" t="n">
-        <v>1545.933859024014</v>
+        <v>1965.109243070479</v>
       </c>
       <c r="AD5" t="n">
-        <v>1249077.158822109</v>
+        <v>1587760.728430627</v>
       </c>
       <c r="AE5" t="n">
-        <v>1709042.474095513</v>
+        <v>2172444.275698449</v>
       </c>
       <c r="AF5" t="n">
         <v>2.516102112890315e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>69</v>
+        <v>68.25520833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1545933.859024014</v>
+        <v>1965109.243070479</v>
       </c>
     </row>
     <row r="6">
@@ -8112,28 +8112,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1206.245806932866</v>
+        <v>1544.962530930307</v>
       </c>
       <c r="AB6" t="n">
-        <v>1650.438728854766</v>
+        <v>2113.885893755295</v>
       </c>
       <c r="AC6" t="n">
-        <v>1492.92317297817</v>
+        <v>1912.139590912774</v>
       </c>
       <c r="AD6" t="n">
-        <v>1206245.806932866</v>
+        <v>1544962.530930307</v>
       </c>
       <c r="AE6" t="n">
-        <v>1650438.728854766</v>
+        <v>2113885.893755295</v>
       </c>
       <c r="AF6" t="n">
         <v>2.567935636524319e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>67</v>
+        <v>66.875</v>
       </c>
       <c r="AH6" t="n">
-        <v>1492923.17297817</v>
+        <v>1912139.590912774</v>
       </c>
     </row>
     <row r="7">
@@ -8218,28 +8218,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1180.137866782305</v>
+        <v>1509.208207048419</v>
       </c>
       <c r="AB7" t="n">
-        <v>1614.716693339739</v>
+        <v>2064.965250450651</v>
       </c>
       <c r="AC7" t="n">
-        <v>1460.610398396506</v>
+        <v>1867.887865144571</v>
       </c>
       <c r="AD7" t="n">
-        <v>1180137.866782305</v>
+        <v>1509208.207048419</v>
       </c>
       <c r="AE7" t="n">
-        <v>1614716.693339739</v>
+        <v>2064965.250450651</v>
       </c>
       <c r="AF7" t="n">
         <v>2.604469697711645e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>66</v>
+        <v>65.9375</v>
       </c>
       <c r="AH7" t="n">
-        <v>1460610.398396506</v>
+        <v>1867887.865144571</v>
       </c>
     </row>
     <row r="8">
@@ -8324,28 +8324,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1165.195399881542</v>
+        <v>1484.552036608624</v>
       </c>
       <c r="AB8" t="n">
-        <v>1594.271750911</v>
+        <v>2031.229590301454</v>
       </c>
       <c r="AC8" t="n">
-        <v>1442.116692578509</v>
+        <v>1837.371889051717</v>
       </c>
       <c r="AD8" t="n">
-        <v>1165195.399881542</v>
+        <v>1484552.036608624</v>
       </c>
       <c r="AE8" t="n">
-        <v>1594271.750911</v>
+        <v>2031229.590301454</v>
       </c>
       <c r="AF8" t="n">
         <v>2.632364838293303e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>66</v>
+        <v>65.234375</v>
       </c>
       <c r="AH8" t="n">
-        <v>1442116.692578509</v>
+        <v>1837371.889051717</v>
       </c>
     </row>
     <row r="9">
@@ -8430,28 +8430,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1141.83885506555</v>
+        <v>1470.875029912884</v>
       </c>
       <c r="AB9" t="n">
-        <v>1562.314295875726</v>
+        <v>2012.516106353391</v>
       </c>
       <c r="AC9" t="n">
-        <v>1413.209212199233</v>
+        <v>1820.444393747118</v>
       </c>
       <c r="AD9" t="n">
-        <v>1141838.85506555</v>
+        <v>1470875.029912884</v>
       </c>
       <c r="AE9" t="n">
-        <v>1562314.295875727</v>
+        <v>2012516.10635339</v>
       </c>
       <c r="AF9" t="n">
         <v>2.655050248128033e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>65</v>
+        <v>64.6875</v>
       </c>
       <c r="AH9" t="n">
-        <v>1413209.212199233</v>
+        <v>1820444.393747118</v>
       </c>
     </row>
     <row r="10">
@@ -8536,28 +8536,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1132.544815621548</v>
+        <v>1451.86728692985</v>
       </c>
       <c r="AB10" t="n">
-        <v>1549.597781084361</v>
+        <v>1986.508873841567</v>
       </c>
       <c r="AC10" t="n">
-        <v>1401.706343731815</v>
+        <v>1796.919255004842</v>
       </c>
       <c r="AD10" t="n">
-        <v>1132544.815621548</v>
+        <v>1451867.28692985</v>
       </c>
       <c r="AE10" t="n">
-        <v>1549597.781084361</v>
+        <v>1986508.873841567</v>
       </c>
       <c r="AF10" t="n">
         <v>2.667909710098301e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>65</v>
+        <v>64.375</v>
       </c>
       <c r="AH10" t="n">
-        <v>1401706.343731815</v>
+        <v>1796919.255004842</v>
       </c>
     </row>
     <row r="11">
@@ -8642,28 +8642,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1118.284585695619</v>
+        <v>1437.607057003921</v>
       </c>
       <c r="AB11" t="n">
-        <v>1530.086305382761</v>
+        <v>1966.997398139966</v>
       </c>
       <c r="AC11" t="n">
-        <v>1384.057015886647</v>
+        <v>1779.269927159674</v>
       </c>
       <c r="AD11" t="n">
-        <v>1118284.585695619</v>
+        <v>1437607.057003921</v>
       </c>
       <c r="AE11" t="n">
-        <v>1530086.305382761</v>
+        <v>1966997.398139966</v>
       </c>
       <c r="AF11" t="n">
         <v>2.681692415492076e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>65</v>
+        <v>64.03645833333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>1384057.015886647</v>
+        <v>1779269.927159674</v>
       </c>
     </row>
     <row r="12">
@@ -8748,28 +8748,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1101.985002119398</v>
+        <v>1421.374793235404</v>
       </c>
       <c r="AB12" t="n">
-        <v>1507.784496046898</v>
+        <v>1944.787698734946</v>
       </c>
       <c r="AC12" t="n">
-        <v>1363.883659933013</v>
+        <v>1759.17989029436</v>
       </c>
       <c r="AD12" t="n">
-        <v>1101985.002119398</v>
+        <v>1421374.793235404</v>
       </c>
       <c r="AE12" t="n">
-        <v>1507784.496046898</v>
+        <v>1944787.698734946</v>
       </c>
       <c r="AF12" t="n">
         <v>2.687231876033115e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>64</v>
+        <v>63.90625</v>
       </c>
       <c r="AH12" t="n">
-        <v>1363883.659933013</v>
+        <v>1759179.89029436</v>
       </c>
     </row>
     <row r="13">
@@ -8854,28 +8854,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1093.252549270046</v>
+        <v>1412.642340386052</v>
       </c>
       <c r="AB13" t="n">
-        <v>1495.836368809785</v>
+        <v>1932.839571497832</v>
       </c>
       <c r="AC13" t="n">
-        <v>1353.075845190108</v>
+        <v>1748.372075551454</v>
       </c>
       <c r="AD13" t="n">
-        <v>1093252.549270046</v>
+        <v>1412642.340386052</v>
       </c>
       <c r="AE13" t="n">
-        <v>1495836.368809785</v>
+        <v>1932839.571497832</v>
       </c>
       <c r="AF13" t="n">
         <v>2.699695662250451e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>64</v>
+        <v>63.61979166666666</v>
       </c>
       <c r="AH13" t="n">
-        <v>1353075.845190108</v>
+        <v>1748372.075551454</v>
       </c>
     </row>
     <row r="14">
@@ -8960,28 +8960,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1086.168913388899</v>
+        <v>1405.45721927842</v>
       </c>
       <c r="AB14" t="n">
-        <v>1486.14422568924</v>
+        <v>1923.008571813198</v>
       </c>
       <c r="AC14" t="n">
-        <v>1344.30870660598</v>
+        <v>1739.479332678827</v>
       </c>
       <c r="AD14" t="n">
-        <v>1086168.913388899</v>
+        <v>1405457.21927842</v>
       </c>
       <c r="AE14" t="n">
-        <v>1486144.22568924</v>
+        <v>1923008.571813198</v>
       </c>
       <c r="AF14" t="n">
         <v>2.705564852585599e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>64</v>
+        <v>63.46354166666666</v>
       </c>
       <c r="AH14" t="n">
-        <v>1344308.70660598</v>
+        <v>1739479.332678827</v>
       </c>
     </row>
     <row r="15">
@@ -9066,28 +9066,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1089.3022845548</v>
+        <v>1408.692075670806</v>
       </c>
       <c r="AB15" t="n">
-        <v>1490.431442353005</v>
+        <v>1927.434645041053</v>
       </c>
       <c r="AC15" t="n">
-        <v>1348.186757328501</v>
+        <v>1743.482987689848</v>
       </c>
       <c r="AD15" t="n">
-        <v>1089302.2845548</v>
+        <v>1408692.075670806</v>
       </c>
       <c r="AE15" t="n">
-        <v>1490431.442353006</v>
+        <v>1927434.645041053</v>
       </c>
       <c r="AF15" t="n">
         <v>2.704179987450339e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>64</v>
+        <v>63.515625</v>
       </c>
       <c r="AH15" t="n">
-        <v>1348186.757328501</v>
+        <v>1743482.987689849</v>
       </c>
     </row>
   </sheetData>
@@ -9363,28 +9363,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1147.720675992089</v>
+        <v>1503.059166037649</v>
       </c>
       <c r="AB2" t="n">
-        <v>1570.362062755042</v>
+        <v>2056.551861263172</v>
       </c>
       <c r="AC2" t="n">
-        <v>1420.488911502698</v>
+        <v>1860.27743801288</v>
       </c>
       <c r="AD2" t="n">
-        <v>1147720.675992089</v>
+        <v>1503059.166037649</v>
       </c>
       <c r="AE2" t="n">
-        <v>1570362.062755042</v>
+        <v>2056551.861263172</v>
       </c>
       <c r="AF2" t="n">
         <v>3.265801355485307e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>74</v>
+        <v>73.38541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1420488.911502698</v>
+        <v>1860277.43801288</v>
       </c>
     </row>
     <row r="3">
@@ -9469,28 +9469,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000.553156537502</v>
+        <v>1318.503885042938</v>
       </c>
       <c r="AB3" t="n">
-        <v>1369.000970064541</v>
+        <v>1804.035183801844</v>
       </c>
       <c r="AC3" t="n">
-        <v>1238.345438886509</v>
+        <v>1631.860597839078</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000553.156537502</v>
+        <v>1318503.885042937</v>
       </c>
       <c r="AE3" t="n">
-        <v>1369000.970064541</v>
+        <v>1804035.183801844</v>
       </c>
       <c r="AF3" t="n">
         <v>3.614656686299548e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>67</v>
+        <v>66.30208333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1238345.438886509</v>
+        <v>1631860.597839078</v>
       </c>
     </row>
     <row r="4">
@@ -9575,28 +9575,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>946.706301007442</v>
+        <v>1255.301547773151</v>
       </c>
       <c r="AB4" t="n">
-        <v>1295.325326772705</v>
+        <v>1717.558957658989</v>
       </c>
       <c r="AC4" t="n">
-        <v>1171.701295586032</v>
+        <v>1553.637541349152</v>
       </c>
       <c r="AD4" t="n">
-        <v>946706.3010074419</v>
+        <v>1255301.547773151</v>
       </c>
       <c r="AE4" t="n">
-        <v>1295325.326772705</v>
+        <v>1717558.957658989</v>
       </c>
       <c r="AF4" t="n">
         <v>3.73983960184239e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>65</v>
+        <v>64.08854166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1171701.295586032</v>
+        <v>1553637.541349152</v>
       </c>
     </row>
     <row r="5">
@@ -9681,28 +9681,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>922.4143516367167</v>
+        <v>1230.975432983645</v>
       </c>
       <c r="AB5" t="n">
-        <v>1262.088009958508</v>
+        <v>1684.274894211545</v>
       </c>
       <c r="AC5" t="n">
-        <v>1141.636101639715</v>
+        <v>1523.530062202655</v>
       </c>
       <c r="AD5" t="n">
-        <v>922414.3516367166</v>
+        <v>1230975.432983645</v>
       </c>
       <c r="AE5" t="n">
-        <v>1262088.009958508</v>
+        <v>1684274.894211545</v>
       </c>
       <c r="AF5" t="n">
         <v>3.781904743315242e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>64</v>
+        <v>63.38541666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>1141636.101639715</v>
+        <v>1523530.062202655</v>
       </c>
     </row>
     <row r="6">
@@ -9787,28 +9787,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>924.5026465485481</v>
+        <v>1233.063727895476</v>
       </c>
       <c r="AB6" t="n">
-        <v>1264.945307185946</v>
+        <v>1687.132191438982</v>
       </c>
       <c r="AC6" t="n">
-        <v>1144.220702430008</v>
+        <v>1526.114662992948</v>
       </c>
       <c r="AD6" t="n">
-        <v>924502.6465485481</v>
+        <v>1233063.727895476</v>
       </c>
       <c r="AE6" t="n">
-        <v>1264945.307185946</v>
+        <v>1687132.191438982</v>
       </c>
       <c r="AF6" t="n">
         <v>3.781260419485242e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>64</v>
+        <v>63.38541666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>1144220.702430008</v>
+        <v>1526114.662992948</v>
       </c>
     </row>
   </sheetData>
@@ -10084,28 +10084,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1366.034882848477</v>
+        <v>1754.650442052064</v>
       </c>
       <c r="AB2" t="n">
-        <v>1869.069191919013</v>
+        <v>2400.790144529834</v>
       </c>
       <c r="AC2" t="n">
-        <v>1690.687851497348</v>
+        <v>2171.662102666037</v>
       </c>
       <c r="AD2" t="n">
-        <v>1366034.882848477</v>
+        <v>1754650.442052064</v>
       </c>
       <c r="AE2" t="n">
-        <v>1869069.191919013</v>
+        <v>2400790.144529834</v>
       </c>
       <c r="AF2" t="n">
         <v>2.616705537915064e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>80</v>
+        <v>79.32291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1690687.851497348</v>
+        <v>2171662.102666037</v>
       </c>
     </row>
     <row r="3">
@@ -10190,28 +10190,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1145.24741433557</v>
+        <v>1477.035883605846</v>
       </c>
       <c r="AB3" t="n">
-        <v>1566.978037043991</v>
+        <v>2020.945658173785</v>
       </c>
       <c r="AC3" t="n">
-        <v>1417.427852455999</v>
+        <v>1828.069440972723</v>
       </c>
       <c r="AD3" t="n">
-        <v>1145247.41433557</v>
+        <v>1477035.883605846</v>
       </c>
       <c r="AE3" t="n">
-        <v>1566978.037043991</v>
+        <v>2020945.658173785</v>
       </c>
       <c r="AF3" t="n">
         <v>2.997967992231564e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>70</v>
+        <v>69.24479166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1417427.852455999</v>
+        <v>1828069.440972724</v>
       </c>
     </row>
     <row r="4">
@@ -10296,28 +10296,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1074.934894694329</v>
+        <v>1397.206628417345</v>
       </c>
       <c r="AB4" t="n">
-        <v>1470.773345701403</v>
+        <v>1911.719749406696</v>
       </c>
       <c r="AC4" t="n">
-        <v>1330.404801831016</v>
+        <v>1729.26789963884</v>
       </c>
       <c r="AD4" t="n">
-        <v>1074934.894694329</v>
+        <v>1397206.628417345</v>
       </c>
       <c r="AE4" t="n">
-        <v>1470773.345701403</v>
+        <v>1911719.749406696</v>
       </c>
       <c r="AF4" t="n">
         <v>3.13244212152948e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>67</v>
+        <v>66.27604166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1330404.801831016</v>
+        <v>1729267.89963884</v>
       </c>
     </row>
     <row r="5">
@@ -10402,28 +10402,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1030.267747380362</v>
+        <v>1352.572635492302</v>
       </c>
       <c r="AB5" t="n">
-        <v>1409.65778417097</v>
+        <v>1850.649551173856</v>
       </c>
       <c r="AC5" t="n">
-        <v>1275.122023716818</v>
+        <v>1674.026155412781</v>
       </c>
       <c r="AD5" t="n">
-        <v>1030267.747380362</v>
+        <v>1352572.635492302</v>
       </c>
       <c r="AE5" t="n">
-        <v>1409657.78417097</v>
+        <v>1850649.551173856</v>
       </c>
       <c r="AF5" t="n">
         <v>3.206893121389738e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>65</v>
+        <v>64.73958333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1275122.023716818</v>
+        <v>1674026.155412782</v>
       </c>
     </row>
     <row r="6">
@@ -10508,28 +10508,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1000.934034364456</v>
+        <v>1313.790517766698</v>
       </c>
       <c r="AB6" t="n">
-        <v>1369.522103910524</v>
+        <v>1797.586146755405</v>
       </c>
       <c r="AC6" t="n">
-        <v>1238.816836449648</v>
+        <v>1626.027047837071</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000934.034364456</v>
+        <v>1313790.517766698</v>
       </c>
       <c r="AE6" t="n">
-        <v>1369522.103910524</v>
+        <v>1797586.146755405</v>
       </c>
       <c r="AF6" t="n">
         <v>3.252169532439659e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>64</v>
+        <v>63.828125</v>
       </c>
       <c r="AH6" t="n">
-        <v>1238816.836449648</v>
+        <v>1626027.047837071</v>
       </c>
     </row>
     <row r="7">
@@ -10614,28 +10614,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>984.301750913124</v>
+        <v>1287.642509797963</v>
       </c>
       <c r="AB7" t="n">
-        <v>1346.765079927852</v>
+        <v>1761.809288683884</v>
       </c>
       <c r="AC7" t="n">
-        <v>1218.231710896198</v>
+        <v>1593.664682886761</v>
       </c>
       <c r="AD7" t="n">
-        <v>984301.7509131241</v>
+        <v>1287642.509797963</v>
       </c>
       <c r="AE7" t="n">
-        <v>1346765.079927852</v>
+        <v>1761809.288683885</v>
       </c>
       <c r="AF7" t="n">
         <v>3.28110498527614e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>64</v>
+        <v>63.25520833333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>1218231.710896198</v>
+        <v>1593664.682886761</v>
       </c>
     </row>
     <row r="8">
@@ -10720,28 +10720,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>983.5325065836531</v>
+        <v>1286.873265468492</v>
       </c>
       <c r="AB8" t="n">
-        <v>1345.712565899605</v>
+        <v>1760.756774655638</v>
       </c>
       <c r="AC8" t="n">
-        <v>1217.279647329595</v>
+        <v>1592.712619320158</v>
       </c>
       <c r="AD8" t="n">
-        <v>983532.5065836532</v>
+        <v>1286873.265468492</v>
       </c>
       <c r="AE8" t="n">
-        <v>1345712.565899605</v>
+        <v>1760756.774655638</v>
       </c>
       <c r="AF8" t="n">
         <v>3.284532600901398e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>64</v>
+        <v>63.203125</v>
       </c>
       <c r="AH8" t="n">
-        <v>1217279.647329595</v>
+        <v>1592712.619320157</v>
       </c>
     </row>
     <row r="9">
@@ -10826,28 +10826,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>985.6018178505439</v>
+        <v>1288.942576735383</v>
       </c>
       <c r="AB9" t="n">
-        <v>1348.543888866535</v>
+        <v>1763.588097622568</v>
       </c>
       <c r="AC9" t="n">
-        <v>1219.840752806347</v>
+        <v>1595.27372479691</v>
       </c>
       <c r="AD9" t="n">
-        <v>985601.8178505439</v>
+        <v>1288942.576735383</v>
       </c>
       <c r="AE9" t="n">
-        <v>1348543.888866535</v>
+        <v>1763588.097622568</v>
       </c>
       <c r="AF9" t="n">
         <v>3.284452888910113e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>64</v>
+        <v>63.203125</v>
       </c>
       <c r="AH9" t="n">
-        <v>1219840.752806347</v>
+        <v>1595273.72479691</v>
       </c>
     </row>
   </sheetData>
@@ -11123,28 +11123,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>999.7164999039162</v>
+        <v>1332.692923948733</v>
       </c>
       <c r="AB2" t="n">
-        <v>1367.856219547783</v>
+        <v>1823.44925280897</v>
       </c>
       <c r="AC2" t="n">
-        <v>1237.309941752404</v>
+        <v>1649.421815347982</v>
       </c>
       <c r="AD2" t="n">
-        <v>999716.4999039161</v>
+        <v>1332692.923948733</v>
       </c>
       <c r="AE2" t="n">
-        <v>1367856.219547783</v>
+        <v>1823449.25280897</v>
       </c>
       <c r="AF2" t="n">
         <v>3.945478973841279e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>70</v>
+        <v>69.58333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1237309.941752404</v>
+        <v>1649421.815347982</v>
       </c>
     </row>
     <row r="3">
@@ -11229,28 +11229,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>892.0529296137535</v>
+        <v>1197.208304277334</v>
       </c>
       <c r="AB3" t="n">
-        <v>1220.546172895285</v>
+        <v>1638.07321901499</v>
       </c>
       <c r="AC3" t="n">
-        <v>1104.058959201471</v>
+        <v>1481.737810042401</v>
       </c>
       <c r="AD3" t="n">
-        <v>892052.9296137535</v>
+        <v>1197208.304277334</v>
       </c>
       <c r="AE3" t="n">
-        <v>1220546.172895285</v>
+        <v>1638073.21901499</v>
       </c>
       <c r="AF3" t="n">
         <v>4.264921077591253e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>65</v>
+        <v>64.375</v>
       </c>
       <c r="AH3" t="n">
-        <v>1104058.95920147</v>
+        <v>1481737.810042401</v>
       </c>
     </row>
     <row r="4">
@@ -11335,28 +11335,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>876.557982373457</v>
+        <v>1181.780676844742</v>
       </c>
       <c r="AB4" t="n">
-        <v>1199.345302492284</v>
+        <v>1616.96445854283</v>
       </c>
       <c r="AC4" t="n">
-        <v>1084.881470114124</v>
+        <v>1462.643640043373</v>
       </c>
       <c r="AD4" t="n">
-        <v>876557.9823734569</v>
+        <v>1181780.676844742</v>
       </c>
       <c r="AE4" t="n">
-        <v>1199345.302492284</v>
+        <v>1616964.458542831</v>
       </c>
       <c r="AF4" t="n">
         <v>4.296127302908083e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>64</v>
+        <v>63.90625</v>
       </c>
       <c r="AH4" t="n">
-        <v>1084881.470114124</v>
+        <v>1462643.640043373</v>
       </c>
     </row>
   </sheetData>
@@ -11632,28 +11632,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1950.449262559592</v>
+        <v>2435.75903582581</v>
       </c>
       <c r="AB2" t="n">
-        <v>2668.690728782552</v>
+        <v>3332.712970921712</v>
       </c>
       <c r="AC2" t="n">
-        <v>2413.994631158507</v>
+        <v>3014.64352246885</v>
       </c>
       <c r="AD2" t="n">
-        <v>1950449.262559592</v>
+        <v>2435759.03582581</v>
       </c>
       <c r="AE2" t="n">
-        <v>2668690.728782552</v>
+        <v>3332712.970921712</v>
       </c>
       <c r="AF2" t="n">
         <v>1.750719889469981e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>96</v>
+        <v>95.72916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2413994.631158507</v>
+        <v>3014643.52246885</v>
       </c>
     </row>
     <row r="3">
@@ -11738,28 +11738,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1473.01017562056</v>
+        <v>1861.264827317288</v>
       </c>
       <c r="AB3" t="n">
-        <v>2015.437506906614</v>
+        <v>2546.664649944435</v>
       </c>
       <c r="AC3" t="n">
-        <v>1823.086979931753</v>
+        <v>2303.614550020022</v>
       </c>
       <c r="AD3" t="n">
-        <v>1473010.17562056</v>
+        <v>1861264.827317288</v>
       </c>
       <c r="AE3" t="n">
-        <v>2015437.506906614</v>
+        <v>2546664.649944435</v>
       </c>
       <c r="AF3" t="n">
         <v>2.18233460362823e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>77</v>
+        <v>76.796875</v>
       </c>
       <c r="AH3" t="n">
-        <v>1823086.979931753</v>
+        <v>2303614.550020022</v>
       </c>
     </row>
     <row r="4">
@@ -11844,28 +11844,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1345.291118654377</v>
+        <v>1704.351664446921</v>
       </c>
       <c r="AB4" t="n">
-        <v>1840.686658598357</v>
+        <v>2331.96913798502</v>
       </c>
       <c r="AC4" t="n">
-        <v>1665.01410732168</v>
+        <v>2109.40927639497</v>
       </c>
       <c r="AD4" t="n">
-        <v>1345291.118654377</v>
+        <v>1704351.664446921</v>
       </c>
       <c r="AE4" t="n">
-        <v>1840686.658598357</v>
+        <v>2331969.13798502</v>
       </c>
       <c r="AF4" t="n">
         <v>2.347850191046602e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>72</v>
+        <v>71.38020833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1665014.10732168</v>
+        <v>2109409.27639497</v>
       </c>
     </row>
     <row r="5">
@@ -11950,28 +11950,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1278.926963379784</v>
+        <v>1628.345900281205</v>
       </c>
       <c r="AB5" t="n">
-        <v>1749.884293571761</v>
+        <v>2227.974698315825</v>
       </c>
       <c r="AC5" t="n">
-        <v>1582.877792571302</v>
+        <v>2015.339920090691</v>
       </c>
       <c r="AD5" t="n">
-        <v>1278926.963379784</v>
+        <v>1628345.900281205</v>
       </c>
       <c r="AE5" t="n">
-        <v>1749884.29357176</v>
+        <v>2227974.698315825</v>
       </c>
       <c r="AF5" t="n">
         <v>2.432602923795433e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>69</v>
+        <v>68.88020833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1582877.792571302</v>
+        <v>2015339.920090691</v>
       </c>
     </row>
     <row r="6">
@@ -12056,28 +12056,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1242.884709063997</v>
+        <v>1572.886799597622</v>
       </c>
       <c r="AB6" t="n">
-        <v>1700.569691144862</v>
+        <v>2152.093110077702</v>
       </c>
       <c r="AC6" t="n">
-        <v>1538.269706586547</v>
+        <v>1946.700364133537</v>
       </c>
       <c r="AD6" t="n">
-        <v>1242884.709063997</v>
+        <v>1572886.799597622</v>
       </c>
       <c r="AE6" t="n">
-        <v>1700569.691144862</v>
+        <v>2152093.110077702</v>
       </c>
       <c r="AF6" t="n">
         <v>2.489812627222701e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>68</v>
+        <v>67.31770833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1538269.706586547</v>
+        <v>1946700.364133537</v>
       </c>
     </row>
     <row r="7">
@@ -12162,28 +12162,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1214.644944598401</v>
+        <v>1544.612869713245</v>
       </c>
       <c r="AB7" t="n">
-        <v>1661.930799552553</v>
+        <v>2113.407471852146</v>
       </c>
       <c r="AC7" t="n">
-        <v>1503.318456577784</v>
+        <v>1911.706828924592</v>
       </c>
       <c r="AD7" t="n">
-        <v>1214644.9445984</v>
+        <v>1544612.869713245</v>
       </c>
       <c r="AE7" t="n">
-        <v>1661930.799552553</v>
+        <v>2113407.471852146</v>
       </c>
       <c r="AF7" t="n">
         <v>2.527394704614742e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>67</v>
+        <v>66.30208333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1503318.456577783</v>
+        <v>1911706.828924592</v>
       </c>
     </row>
     <row r="8">
@@ -12268,28 +12268,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1190.873694901816</v>
+        <v>1520.908939824365</v>
       </c>
       <c r="AB8" t="n">
-        <v>1629.405927004164</v>
+        <v>2080.974709234598</v>
       </c>
       <c r="AC8" t="n">
-        <v>1473.897712216467</v>
+        <v>1882.369403651595</v>
       </c>
       <c r="AD8" t="n">
-        <v>1190873.694901816</v>
+        <v>1520908.939824365</v>
       </c>
       <c r="AE8" t="n">
-        <v>1629405.927004164</v>
+        <v>2080974.709234598</v>
       </c>
       <c r="AF8" t="n">
         <v>2.554101146597099e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>66</v>
+        <v>65.625</v>
       </c>
       <c r="AH8" t="n">
-        <v>1473897.712216467</v>
+        <v>1882369.403651595</v>
       </c>
     </row>
     <row r="9">
@@ -12374,28 +12374,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1180.048907071911</v>
+        <v>1500.342068906709</v>
       </c>
       <c r="AB9" t="n">
-        <v>1614.594974739353</v>
+        <v>2052.834209098754</v>
       </c>
       <c r="AC9" t="n">
-        <v>1460.500296448508</v>
+        <v>1856.914593353277</v>
       </c>
       <c r="AD9" t="n">
-        <v>1180048.907071911</v>
+        <v>1500342.068906709</v>
       </c>
       <c r="AE9" t="n">
-        <v>1614594.974739353</v>
+        <v>2052834.209098754</v>
       </c>
       <c r="AF9" t="n">
         <v>2.570318070403254e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>66</v>
+        <v>65.20833333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1460500.296448508</v>
+        <v>1856914.593353277</v>
       </c>
     </row>
     <row r="10">
@@ -12480,28 +12480,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1158.768583878842</v>
+        <v>1488.769663382609</v>
       </c>
       <c r="AB10" t="n">
-        <v>1585.478297724994</v>
+        <v>2037.000333322181</v>
       </c>
       <c r="AC10" t="n">
-        <v>1434.162474222887</v>
+        <v>1842.591880457835</v>
       </c>
       <c r="AD10" t="n">
-        <v>1158768.583878842</v>
+        <v>1488769.663382609</v>
       </c>
       <c r="AE10" t="n">
-        <v>1585478.297724995</v>
+        <v>2037000.333322181</v>
       </c>
       <c r="AF10" t="n">
         <v>2.587693345909848e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>65</v>
+        <v>64.765625</v>
       </c>
       <c r="AH10" t="n">
-        <v>1434162.474222887</v>
+        <v>1842591.880457835</v>
       </c>
     </row>
     <row r="11">
@@ -12586,28 +12586,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1148.311515851269</v>
+        <v>1468.570512267286</v>
       </c>
       <c r="AB11" t="n">
-        <v>1571.170475916388</v>
+        <v>2009.362963642542</v>
       </c>
       <c r="AC11" t="n">
-        <v>1421.22017084654</v>
+        <v>1817.592182551129</v>
       </c>
       <c r="AD11" t="n">
-        <v>1148311.515851269</v>
+        <v>1468570.512267286</v>
       </c>
       <c r="AE11" t="n">
-        <v>1571170.475916388</v>
+        <v>2009362.963642542</v>
       </c>
       <c r="AF11" t="n">
         <v>2.603459799610276e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>65</v>
+        <v>64.375</v>
       </c>
       <c r="AH11" t="n">
-        <v>1421220.17084654</v>
+        <v>1817592.182551129</v>
       </c>
     </row>
     <row r="12">
@@ -12692,28 +12692,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1139.628620534688</v>
+        <v>1459.887616950705</v>
       </c>
       <c r="AB12" t="n">
-        <v>1559.290155481935</v>
+        <v>1997.482643208089</v>
       </c>
       <c r="AC12" t="n">
-        <v>1410.473691520217</v>
+        <v>1806.845703224806</v>
       </c>
       <c r="AD12" t="n">
-        <v>1139628.620534688</v>
+        <v>1459887.616950705</v>
       </c>
       <c r="AE12" t="n">
-        <v>1559290.155481935</v>
+        <v>1997482.643208089</v>
       </c>
       <c r="AF12" t="n">
         <v>2.609251558112474e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>65</v>
+        <v>64.21875</v>
       </c>
       <c r="AH12" t="n">
-        <v>1410473.691520217</v>
+        <v>1806845.703224806</v>
       </c>
     </row>
     <row r="13">
@@ -12798,28 +12798,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1119.745480854403</v>
+        <v>1440.071797078124</v>
       </c>
       <c r="AB13" t="n">
-        <v>1532.085166589154</v>
+        <v>1970.36976424615</v>
       </c>
       <c r="AC13" t="n">
-        <v>1385.865108584921</v>
+        <v>1782.320439377829</v>
       </c>
       <c r="AD13" t="n">
-        <v>1119745.480854403</v>
+        <v>1440071.797078124</v>
       </c>
       <c r="AE13" t="n">
-        <v>1532085.166589154</v>
+        <v>1970369.76424615</v>
       </c>
       <c r="AF13" t="n">
         <v>2.621864721072817e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>64</v>
+        <v>63.90625</v>
       </c>
       <c r="AH13" t="n">
-        <v>1385865.108584921</v>
+        <v>1782320.439377829</v>
       </c>
     </row>
     <row r="14">
@@ -12904,28 +12904,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1110.520384342049</v>
+        <v>1430.84670056577</v>
       </c>
       <c r="AB14" t="n">
-        <v>1519.462982558417</v>
+        <v>1957.747580215412</v>
       </c>
       <c r="AC14" t="n">
-        <v>1374.447568082731</v>
+        <v>1770.902898875639</v>
       </c>
       <c r="AD14" t="n">
-        <v>1110520.384342049</v>
+        <v>1430846.70056577</v>
       </c>
       <c r="AE14" t="n">
-        <v>1519462.982558417</v>
+        <v>1957747.580215412</v>
       </c>
       <c r="AF14" t="n">
         <v>2.627720832447261e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>64</v>
+        <v>63.77604166666666</v>
       </c>
       <c r="AH14" t="n">
-        <v>1374447.568082731</v>
+        <v>1770902.898875639</v>
       </c>
     </row>
     <row r="15">
@@ -13010,28 +13010,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1106.657243857133</v>
+        <v>1426.983560080855</v>
       </c>
       <c r="AB15" t="n">
-        <v>1514.177263317225</v>
+        <v>1952.461860974221</v>
       </c>
       <c r="AC15" t="n">
-        <v>1369.666310467365</v>
+        <v>1766.121641260273</v>
       </c>
       <c r="AD15" t="n">
-        <v>1106657.243857133</v>
+        <v>1426983.560080855</v>
       </c>
       <c r="AE15" t="n">
-        <v>1514177.263317226</v>
+        <v>1952461.860974221</v>
       </c>
       <c r="AF15" t="n">
         <v>2.630681064570608e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>64</v>
+        <v>63.69791666666666</v>
       </c>
       <c r="AH15" t="n">
-        <v>1369666.310467365</v>
+        <v>1766121.641260273</v>
       </c>
     </row>
     <row r="16">
@@ -13116,28 +13116,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1105.64312173313</v>
+        <v>1425.969437956852</v>
       </c>
       <c r="AB16" t="n">
-        <v>1512.789696687254</v>
+        <v>1951.074294344249</v>
       </c>
       <c r="AC16" t="n">
-        <v>1368.411171249096</v>
+        <v>1764.866502042004</v>
       </c>
       <c r="AD16" t="n">
-        <v>1105643.12173313</v>
+        <v>1425969.437956852</v>
       </c>
       <c r="AE16" t="n">
-        <v>1512789.696687254</v>
+        <v>1951074.294344249</v>
       </c>
       <c r="AF16" t="n">
         <v>2.63138894616532e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>64</v>
+        <v>63.69791666666666</v>
       </c>
       <c r="AH16" t="n">
-        <v>1368411.171249096</v>
+        <v>1764866.502042004</v>
       </c>
     </row>
     <row r="17">
@@ -13222,28 +13222,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1106.684443400193</v>
+        <v>1427.010759623915</v>
       </c>
       <c r="AB17" t="n">
-        <v>1514.214478932</v>
+        <v>1952.499076588995</v>
       </c>
       <c r="AC17" t="n">
-        <v>1369.699974276098</v>
+        <v>1766.155305069006</v>
       </c>
       <c r="AD17" t="n">
-        <v>1106684.443400193</v>
+        <v>1427010.759623915</v>
       </c>
       <c r="AE17" t="n">
-        <v>1514214.478932</v>
+        <v>1952499.076588995</v>
       </c>
       <c r="AF17" t="n">
         <v>2.631517651909813e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>64</v>
+        <v>63.671875</v>
       </c>
       <c r="AH17" t="n">
-        <v>1369699.974276098</v>
+        <v>1766155.305069006</v>
       </c>
     </row>
   </sheetData>
@@ -13519,28 +13519,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>919.7161307052662</v>
+        <v>1241.280942577202</v>
       </c>
       <c r="AB2" t="n">
-        <v>1258.396185042992</v>
+        <v>1698.375347084445</v>
       </c>
       <c r="AC2" t="n">
-        <v>1138.296619312626</v>
+        <v>1536.284787643476</v>
       </c>
       <c r="AD2" t="n">
-        <v>919716.1307052663</v>
+        <v>1241280.942577202</v>
       </c>
       <c r="AE2" t="n">
-        <v>1258396.185042992</v>
+        <v>1698375.347084445</v>
       </c>
       <c r="AF2" t="n">
         <v>4.448009337122097e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>68</v>
+        <v>67.52604166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1138296.619312626</v>
+        <v>1536284.787643476</v>
       </c>
     </row>
     <row r="3">
@@ -13625,28 +13625,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>856.5676642821486</v>
+        <v>1159.686119620123</v>
       </c>
       <c r="AB3" t="n">
-        <v>1171.993667369164</v>
+        <v>1586.733710605036</v>
       </c>
       <c r="AC3" t="n">
-        <v>1060.140236658893</v>
+        <v>1435.29807225964</v>
       </c>
       <c r="AD3" t="n">
-        <v>856567.6642821486</v>
+        <v>1159686.119620123</v>
       </c>
       <c r="AE3" t="n">
-        <v>1171993.667369164</v>
+        <v>1586733.710605036</v>
       </c>
       <c r="AF3" t="n">
         <v>4.66730096164216e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>65</v>
+        <v>64.375</v>
       </c>
       <c r="AH3" t="n">
-        <v>1060140.236658893</v>
+        <v>1435298.07225964</v>
       </c>
     </row>
     <row r="4">
@@ -13731,28 +13731,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>859.3078131544233</v>
+        <v>1162.426268492398</v>
       </c>
       <c r="AB4" t="n">
-        <v>1175.742859943046</v>
+        <v>1590.482903178919</v>
       </c>
       <c r="AC4" t="n">
-        <v>1063.531611555549</v>
+        <v>1438.689447156296</v>
       </c>
       <c r="AD4" t="n">
-        <v>859307.8131544234</v>
+        <v>1162426.268492398</v>
       </c>
       <c r="AE4" t="n">
-        <v>1175742.859943046</v>
+        <v>1590482.903178919</v>
       </c>
       <c r="AF4" t="n">
         <v>4.668108453158015e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>65</v>
+        <v>64.34895833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1063531.611555549</v>
+        <v>1438689.447156296</v>
       </c>
     </row>
   </sheetData>
@@ -14028,28 +14028,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1594.972180871715</v>
+        <v>2026.315489458279</v>
       </c>
       <c r="AB2" t="n">
-        <v>2182.311303075173</v>
+        <v>2772.494247407049</v>
       </c>
       <c r="AC2" t="n">
-        <v>1974.034575202829</v>
+        <v>2507.891287654635</v>
       </c>
       <c r="AD2" t="n">
-        <v>1594972.180871715</v>
+        <v>2026315.489458279</v>
       </c>
       <c r="AE2" t="n">
-        <v>2182311.303075173</v>
+        <v>2772494.247407048</v>
       </c>
       <c r="AF2" t="n">
         <v>2.174089547564572e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>86</v>
+        <v>85.88541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1974034.575202829</v>
+        <v>2507891.287654635</v>
       </c>
     </row>
     <row r="3">
@@ -14134,28 +14134,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1284.099376501017</v>
+        <v>1638.736145848694</v>
       </c>
       <c r="AB3" t="n">
-        <v>1756.961417394994</v>
+        <v>2242.191090686546</v>
       </c>
       <c r="AC3" t="n">
-        <v>1589.279485629652</v>
+        <v>2028.199519926383</v>
       </c>
       <c r="AD3" t="n">
-        <v>1284099.376501017</v>
+        <v>1638736.145848694</v>
       </c>
       <c r="AE3" t="n">
-        <v>1756961.417394994</v>
+        <v>2242191.090686547</v>
       </c>
       <c r="AF3" t="n">
         <v>2.582318440149589e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>73</v>
+        <v>72.31770833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1589279.485629652</v>
+        <v>2028199.519926383</v>
       </c>
     </row>
     <row r="4">
@@ -14240,28 +14240,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1191.00387426729</v>
+        <v>1526.463756047781</v>
       </c>
       <c r="AB4" t="n">
-        <v>1629.584044155113</v>
+        <v>2088.575053852673</v>
       </c>
       <c r="AC4" t="n">
-        <v>1474.058830116519</v>
+        <v>1889.244382046471</v>
       </c>
       <c r="AD4" t="n">
-        <v>1191003.87426729</v>
+        <v>1526463.756047781</v>
       </c>
       <c r="AE4" t="n">
-        <v>1629584.044155113</v>
+        <v>2088575.053852672</v>
       </c>
       <c r="AF4" t="n">
         <v>2.731612758498791e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>69</v>
+        <v>68.359375</v>
       </c>
       <c r="AH4" t="n">
-        <v>1474058.830116519</v>
+        <v>1889244.382046471</v>
       </c>
     </row>
     <row r="5">
@@ -14346,28 +14346,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1142.692302365564</v>
+        <v>1468.563740362461</v>
       </c>
       <c r="AB5" t="n">
-        <v>1563.482020123043</v>
+        <v>2009.353698023604</v>
       </c>
       <c r="AC5" t="n">
-        <v>1414.265490483296</v>
+        <v>1817.583801229858</v>
       </c>
       <c r="AD5" t="n">
-        <v>1142692.302365564</v>
+        <v>1468563.740362461</v>
       </c>
       <c r="AE5" t="n">
-        <v>1563482.020123043</v>
+        <v>2009353.698023604</v>
       </c>
       <c r="AF5" t="n">
         <v>2.808482839800589e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>67</v>
+        <v>66.484375</v>
       </c>
       <c r="AH5" t="n">
-        <v>1414265.490483296</v>
+        <v>1817583.801229858</v>
       </c>
     </row>
     <row r="6">
@@ -14452,28 +14452,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1111.670495464221</v>
+        <v>1427.987655096307</v>
       </c>
       <c r="AB6" t="n">
-        <v>1521.036615335095</v>
+        <v>1953.835708071907</v>
       </c>
       <c r="AC6" t="n">
-        <v>1375.87101555581</v>
+        <v>1767.364370319163</v>
       </c>
       <c r="AD6" t="n">
-        <v>1111670.495464221</v>
+        <v>1427987.655096306</v>
       </c>
       <c r="AE6" t="n">
-        <v>1521036.615335095</v>
+        <v>1953835.708071908</v>
       </c>
       <c r="AF6" t="n">
         <v>2.860972484868607e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>66</v>
+        <v>65.26041666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1375871.01555581</v>
+        <v>1767364.370319163</v>
       </c>
     </row>
     <row r="7">
@@ -14558,28 +14558,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1086.484464081316</v>
+        <v>1402.868943521105</v>
       </c>
       <c r="AB7" t="n">
-        <v>1486.575976067719</v>
+        <v>1919.467178735372</v>
       </c>
       <c r="AC7" t="n">
-        <v>1344.699251334301</v>
+        <v>1736.275925185973</v>
       </c>
       <c r="AD7" t="n">
-        <v>1086484.464081316</v>
+        <v>1402868.943521105</v>
       </c>
       <c r="AE7" t="n">
-        <v>1486575.976067719</v>
+        <v>1919467.178735373</v>
       </c>
       <c r="AF7" t="n">
         <v>2.891663151657013e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>65</v>
+        <v>64.58333333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1344699.251334301</v>
+        <v>1736275.925185973</v>
       </c>
     </row>
     <row r="8">
@@ -14664,28 +14664,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1072.111177308666</v>
+        <v>1378.874058575939</v>
       </c>
       <c r="AB8" t="n">
-        <v>1466.909811000719</v>
+        <v>1886.636318573783</v>
       </c>
       <c r="AC8" t="n">
-        <v>1326.90999745966</v>
+        <v>1706.578396239804</v>
       </c>
       <c r="AD8" t="n">
-        <v>1072111.177308666</v>
+        <v>1378874.058575938</v>
       </c>
       <c r="AE8" t="n">
-        <v>1466909.811000719</v>
+        <v>1886636.318573783</v>
       </c>
       <c r="AF8" t="n">
         <v>2.916904073875513e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>65</v>
+        <v>64.01041666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1326909.99745966</v>
+        <v>1706578.396239804</v>
       </c>
     </row>
     <row r="9">
@@ -14770,28 +14770,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1048.302246405839</v>
+        <v>1364.652560426848</v>
       </c>
       <c r="AB9" t="n">
-        <v>1434.333381363572</v>
+        <v>1867.177837397979</v>
       </c>
       <c r="AC9" t="n">
-        <v>1297.442616545777</v>
+        <v>1688.977005197269</v>
       </c>
       <c r="AD9" t="n">
-        <v>1048302.246405839</v>
+        <v>1364652.560426848</v>
       </c>
       <c r="AE9" t="n">
-        <v>1434333.381363573</v>
+        <v>1867177.837397979</v>
       </c>
       <c r="AF9" t="n">
         <v>2.934185500735339e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>64</v>
+        <v>63.64583333333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>1297442.616545777</v>
+        <v>1688977.005197269</v>
       </c>
     </row>
     <row r="10">
@@ -14876,28 +14876,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1038.085062041364</v>
+        <v>1354.333890835888</v>
       </c>
       <c r="AB10" t="n">
-        <v>1420.353778965736</v>
+        <v>1853.059378436053</v>
       </c>
       <c r="AC10" t="n">
-        <v>1284.797207780295</v>
+        <v>1676.205992143288</v>
       </c>
       <c r="AD10" t="n">
-        <v>1038085.062041364</v>
+        <v>1354333.890835888</v>
       </c>
       <c r="AE10" t="n">
-        <v>1420353.778965736</v>
+        <v>1853059.378436053</v>
       </c>
       <c r="AF10" t="n">
         <v>2.942933774913342e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>64</v>
+        <v>63.46354166666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>1284797.207780295</v>
+        <v>1676205.992143288</v>
       </c>
     </row>
     <row r="11">
@@ -14982,28 +14982,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1037.011618523736</v>
+        <v>1343.740334372228</v>
       </c>
       <c r="AB11" t="n">
-        <v>1418.885046187931</v>
+        <v>1838.564807127747</v>
       </c>
       <c r="AC11" t="n">
-        <v>1283.468648797424</v>
+        <v>1663.094762377388</v>
       </c>
       <c r="AD11" t="n">
-        <v>1037011.618523736</v>
+        <v>1343740.334372228</v>
       </c>
       <c r="AE11" t="n">
-        <v>1418885.046187931</v>
+        <v>1838564.807127747</v>
       </c>
       <c r="AF11" t="n">
         <v>2.948957176806394e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>64</v>
+        <v>63.33333333333334</v>
       </c>
       <c r="AH11" t="n">
-        <v>1283468.648797424</v>
+        <v>1663094.762377388</v>
       </c>
     </row>
     <row r="12">
@@ -15088,28 +15088,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1038.694039581098</v>
+        <v>1345.42275542959</v>
       </c>
       <c r="AB12" t="n">
-        <v>1421.187008901793</v>
+        <v>1840.866769841609</v>
       </c>
       <c r="AC12" t="n">
-        <v>1285.5509154207</v>
+        <v>1665.177029000663</v>
       </c>
       <c r="AD12" t="n">
-        <v>1038694.039581098</v>
+        <v>1345422.75542959</v>
       </c>
       <c r="AE12" t="n">
-        <v>1421187.008901793</v>
+        <v>1840866.769841609</v>
       </c>
       <c r="AF12" t="n">
         <v>2.948383519483246e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>64</v>
+        <v>63.33333333333334</v>
       </c>
       <c r="AH12" t="n">
-        <v>1285550.9154207</v>
+        <v>1665177.029000663</v>
       </c>
     </row>
   </sheetData>
@@ -15385,28 +15385,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1768.301081808478</v>
+        <v>2221.799835923346</v>
       </c>
       <c r="AB2" t="n">
-        <v>2419.467552068282</v>
+        <v>3039.96455440143</v>
       </c>
       <c r="AC2" t="n">
-        <v>2188.556964642922</v>
+        <v>2749.834603946292</v>
       </c>
       <c r="AD2" t="n">
-        <v>1768301.081808478</v>
+        <v>2221799.835923346</v>
       </c>
       <c r="AE2" t="n">
-        <v>2419467.552068282</v>
+        <v>3039964.55440143</v>
       </c>
       <c r="AF2" t="n">
         <v>1.943514448378733e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>91</v>
+        <v>90.703125</v>
       </c>
       <c r="AH2" t="n">
-        <v>2188556.964642921</v>
+        <v>2749834.603946292</v>
       </c>
     </row>
     <row r="3">
@@ -15491,28 +15491,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1377.574997283739</v>
+        <v>1744.282268335296</v>
       </c>
       <c r="AB3" t="n">
-        <v>1884.858885603256</v>
+        <v>2386.60395183901</v>
       </c>
       <c r="AC3" t="n">
-        <v>1704.970598977341</v>
+        <v>2158.829820295178</v>
       </c>
       <c r="AD3" t="n">
-        <v>1377574.997283739</v>
+        <v>1744282.268335296</v>
       </c>
       <c r="AE3" t="n">
-        <v>1884858.885603256</v>
+        <v>2386603.95183901</v>
       </c>
       <c r="AF3" t="n">
         <v>2.365735076956659e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>75</v>
+        <v>74.50520833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1704970.598977341</v>
+        <v>2158829.820295178</v>
       </c>
     </row>
     <row r="4">
@@ -15597,28 +15597,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1263.517378502465</v>
+        <v>1610.888303268381</v>
       </c>
       <c r="AB4" t="n">
-        <v>1728.800219719707</v>
+        <v>2204.088443908056</v>
       </c>
       <c r="AC4" t="n">
-        <v>1563.805953136005</v>
+        <v>1993.73333627903</v>
       </c>
       <c r="AD4" t="n">
-        <v>1263517.378502465</v>
+        <v>1610888.303268381</v>
       </c>
       <c r="AE4" t="n">
-        <v>1728800.219719707</v>
+        <v>2204088.443908055</v>
       </c>
       <c r="AF4" t="n">
         <v>2.52262950097776e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>70</v>
+        <v>69.86979166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1563805.953136005</v>
+        <v>1993733.33627903</v>
       </c>
     </row>
     <row r="5">
@@ -15703,28 +15703,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1210.498566235967</v>
+        <v>1548.218400568454</v>
       </c>
       <c r="AB5" t="n">
-        <v>1656.257541751768</v>
+        <v>2118.340718233038</v>
       </c>
       <c r="AC5" t="n">
-        <v>1498.186646539038</v>
+        <v>1916.169253194747</v>
       </c>
       <c r="AD5" t="n">
-        <v>1210498.566235967</v>
+        <v>1548218.400568454</v>
       </c>
       <c r="AE5" t="n">
-        <v>1656257.541751768</v>
+        <v>2118340.718233038</v>
       </c>
       <c r="AF5" t="n">
         <v>2.605611625158032e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>68</v>
+        <v>67.65625</v>
       </c>
       <c r="AH5" t="n">
-        <v>1498186.646539038</v>
+        <v>1916169.253194747</v>
       </c>
     </row>
     <row r="6">
@@ -15809,28 +15809,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1178.331412641559</v>
+        <v>1506.332836732911</v>
       </c>
       <c r="AB6" t="n">
-        <v>1612.245023089238</v>
+        <v>2061.031041932587</v>
       </c>
       <c r="AC6" t="n">
-        <v>1458.374620885702</v>
+        <v>1864.329131965775</v>
       </c>
       <c r="AD6" t="n">
-        <v>1178331.412641559</v>
+        <v>1506332.836732911</v>
       </c>
       <c r="AE6" t="n">
-        <v>1612245.023089238</v>
+        <v>2061031.041932587</v>
       </c>
       <c r="AF6" t="n">
         <v>2.658947607094454e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>67</v>
+        <v>66.30208333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1458374.620885702</v>
+        <v>1864329.131965775</v>
       </c>
     </row>
     <row r="7">
@@ -15915,28 +15915,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1151.133233344776</v>
+        <v>1479.100492017348</v>
       </c>
       <c r="AB7" t="n">
-        <v>1575.031274276395</v>
+        <v>2023.770546486496</v>
       </c>
       <c r="AC7" t="n">
-        <v>1424.712500029732</v>
+        <v>1830.624725909625</v>
       </c>
       <c r="AD7" t="n">
-        <v>1151133.233344777</v>
+        <v>1479100.492017348</v>
       </c>
       <c r="AE7" t="n">
-        <v>1575031.274276395</v>
+        <v>2023770.546486496</v>
       </c>
       <c r="AF7" t="n">
         <v>2.695633015989811e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>66</v>
+        <v>65.390625</v>
       </c>
       <c r="AH7" t="n">
-        <v>1424712.500029732</v>
+        <v>1830624.725909625</v>
       </c>
     </row>
     <row r="8">
@@ -16021,28 +16021,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1129.175756792245</v>
+        <v>1457.210335272521</v>
       </c>
       <c r="AB8" t="n">
-        <v>1544.988086161722</v>
+        <v>1993.819468302665</v>
       </c>
       <c r="AC8" t="n">
-        <v>1397.536591622845</v>
+        <v>1803.532136591057</v>
       </c>
       <c r="AD8" t="n">
-        <v>1129175.756792245</v>
+        <v>1457210.335272521</v>
       </c>
       <c r="AE8" t="n">
-        <v>1544988.086161722</v>
+        <v>1993819.468302665</v>
       </c>
       <c r="AF8" t="n">
         <v>2.71654776017554e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>65</v>
+        <v>64.89583333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1397536.591622845</v>
+        <v>1803532.136591057</v>
       </c>
     </row>
     <row r="9">
@@ -16127,28 +16127,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1116.460382283679</v>
+        <v>1434.810715941602</v>
       </c>
       <c r="AB9" t="n">
-        <v>1527.590349796371</v>
+        <v>1963.171320932641</v>
       </c>
       <c r="AC9" t="n">
-        <v>1381.799270798326</v>
+        <v>1775.809005391083</v>
       </c>
       <c r="AD9" t="n">
-        <v>1116460.382283679</v>
+        <v>1434810.715941601</v>
       </c>
       <c r="AE9" t="n">
-        <v>1527590.349796371</v>
+        <v>1963171.320932641</v>
       </c>
       <c r="AF9" t="n">
         <v>2.738342412692708e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>65</v>
+        <v>64.375</v>
       </c>
       <c r="AH9" t="n">
-        <v>1381799.270798326</v>
+        <v>1775809.005391083</v>
       </c>
     </row>
     <row r="10">
@@ -16233,28 +16233,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1104.21242536394</v>
+        <v>1422.562759021862</v>
       </c>
       <c r="AB10" t="n">
-        <v>1510.83215479706</v>
+        <v>1946.413125933329</v>
       </c>
       <c r="AC10" t="n">
-        <v>1366.640454409475</v>
+        <v>1760.650189002231</v>
       </c>
       <c r="AD10" t="n">
-        <v>1104212.42536394</v>
+        <v>1422562.759021862</v>
       </c>
       <c r="AE10" t="n">
-        <v>1510832.154797059</v>
+        <v>1946413.125933329</v>
       </c>
       <c r="AF10" t="n">
         <v>2.750931870357905e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>65</v>
+        <v>64.0625</v>
       </c>
       <c r="AH10" t="n">
-        <v>1366640.454409475</v>
+        <v>1760650.189002231</v>
       </c>
     </row>
     <row r="11">
@@ -16339,28 +16339,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1083.036091538372</v>
+        <v>1401.453745003999</v>
       </c>
       <c r="AB11" t="n">
-        <v>1481.857760623004</v>
+        <v>1917.530841690116</v>
       </c>
       <c r="AC11" t="n">
-        <v>1340.431335749573</v>
+        <v>1734.52438943065</v>
       </c>
       <c r="AD11" t="n">
-        <v>1083036.091538372</v>
+        <v>1401453.745003999</v>
       </c>
       <c r="AE11" t="n">
-        <v>1481857.760623004</v>
+        <v>1917530.841690116</v>
       </c>
       <c r="AF11" t="n">
         <v>2.767108646605119e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>64</v>
+        <v>63.69791666666666</v>
       </c>
       <c r="AH11" t="n">
-        <v>1340431.335749573</v>
+        <v>1734524.38943065</v>
       </c>
     </row>
     <row r="12">
@@ -16445,28 +16445,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1074.963929864526</v>
+        <v>1393.381583330152</v>
       </c>
       <c r="AB12" t="n">
-        <v>1470.813072902207</v>
+        <v>1906.486153969319</v>
       </c>
       <c r="AC12" t="n">
-        <v>1330.440737523533</v>
+        <v>1724.533791204609</v>
       </c>
       <c r="AD12" t="n">
-        <v>1074963.929864526</v>
+        <v>1393381.583330152</v>
       </c>
       <c r="AE12" t="n">
-        <v>1470813.072902207</v>
+        <v>1906486.153969319</v>
       </c>
       <c r="AF12" t="n">
         <v>2.772591152362544e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>64</v>
+        <v>63.56770833333334</v>
       </c>
       <c r="AH12" t="n">
-        <v>1330440.737523533</v>
+        <v>1724533.791204609</v>
       </c>
     </row>
     <row r="13">
@@ -16551,28 +16551,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1071.068257576289</v>
+        <v>1389.38442581543</v>
       </c>
       <c r="AB13" t="n">
-        <v>1465.482842212511</v>
+        <v>1901.017066715533</v>
       </c>
       <c r="AC13" t="n">
-        <v>1325.619216569835</v>
+        <v>1719.586665962412</v>
       </c>
       <c r="AD13" t="n">
-        <v>1071068.257576289</v>
+        <v>1389384.42581543</v>
       </c>
       <c r="AE13" t="n">
-        <v>1465482.842212511</v>
+        <v>1901017.066715533</v>
       </c>
       <c r="AF13" t="n">
         <v>2.777464490813587e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>64</v>
+        <v>63.46354166666666</v>
       </c>
       <c r="AH13" t="n">
-        <v>1325619.216569835</v>
+        <v>1719586.665962412</v>
       </c>
     </row>
     <row r="14">
@@ -16657,28 +16657,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1073.153477932816</v>
+        <v>1391.469646171957</v>
       </c>
       <c r="AB14" t="n">
-        <v>1468.33593269774</v>
+        <v>1903.870157200763</v>
       </c>
       <c r="AC14" t="n">
-        <v>1328.200012103492</v>
+        <v>1722.167461496069</v>
       </c>
       <c r="AD14" t="n">
-        <v>1073153.477932816</v>
+        <v>1391469.646171957</v>
       </c>
       <c r="AE14" t="n">
-        <v>1468335.93269774</v>
+        <v>1903870.157200763</v>
       </c>
       <c r="AF14" t="n">
         <v>2.776787638250942e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>64</v>
+        <v>63.48958333333334</v>
       </c>
       <c r="AH14" t="n">
-        <v>1328200.012103492</v>
+        <v>1722167.461496069</v>
       </c>
     </row>
   </sheetData>
@@ -16954,28 +16954,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2152.694234933169</v>
+        <v>2660.191837661228</v>
       </c>
       <c r="AB2" t="n">
-        <v>2945.411222402548</v>
+        <v>3639.791831669368</v>
       </c>
       <c r="AC2" t="n">
-        <v>2664.305309247063</v>
+        <v>3292.415207734626</v>
       </c>
       <c r="AD2" t="n">
-        <v>2152694.234933169</v>
+        <v>2660191.837661228</v>
       </c>
       <c r="AE2" t="n">
-        <v>2945411.222402548</v>
+        <v>3639791.831669368</v>
       </c>
       <c r="AF2" t="n">
         <v>1.585738226507907e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>102</v>
+        <v>101.0416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2664305.309247063</v>
+        <v>3292415.207734626</v>
       </c>
     </row>
     <row r="3">
@@ -17060,28 +17060,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1579.877349171056</v>
+        <v>1970.289263015419</v>
       </c>
       <c r="AB3" t="n">
-        <v>2161.657888405357</v>
+        <v>2695.83669268526</v>
       </c>
       <c r="AC3" t="n">
-        <v>1955.35229344185</v>
+        <v>2438.54982236594</v>
       </c>
       <c r="AD3" t="n">
-        <v>1579877.349171056</v>
+        <v>1970289.263015419</v>
       </c>
       <c r="AE3" t="n">
-        <v>2161657.888405357</v>
+        <v>2695836.69268526</v>
       </c>
       <c r="AF3" t="n">
         <v>2.024874254855995e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>80</v>
+        <v>79.140625</v>
       </c>
       <c r="AH3" t="n">
-        <v>1955352.29344185</v>
+        <v>2438549.82236594</v>
       </c>
     </row>
     <row r="4">
@@ -17166,28 +17166,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1418.652564776246</v>
+        <v>1789.537797637209</v>
       </c>
       <c r="AB4" t="n">
-        <v>1941.063025660883</v>
+        <v>2448.524563562933</v>
       </c>
       <c r="AC4" t="n">
-        <v>1755.810694790874</v>
+        <v>2214.840815742294</v>
       </c>
       <c r="AD4" t="n">
-        <v>1418652.564776246</v>
+        <v>1789537.797637209</v>
       </c>
       <c r="AE4" t="n">
-        <v>1941063.025660883</v>
+        <v>2448524.563562932</v>
       </c>
       <c r="AF4" t="n">
         <v>2.195187905755183e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>73</v>
+        <v>72.99479166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1755810.694790874</v>
+        <v>2214840.815742294</v>
       </c>
     </row>
     <row r="5">
@@ -17272,28 +17272,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1356.210457045252</v>
+        <v>1707.536865563749</v>
       </c>
       <c r="AB5" t="n">
-        <v>1855.626979111964</v>
+        <v>2336.32727067422</v>
       </c>
       <c r="AC5" t="n">
-        <v>1678.52854461434</v>
+        <v>2113.351475016991</v>
       </c>
       <c r="AD5" t="n">
-        <v>1356210.457045252</v>
+        <v>1707536.865563749</v>
       </c>
       <c r="AE5" t="n">
-        <v>1855626.979111964</v>
+        <v>2336327.27067422</v>
       </c>
       <c r="AF5" t="n">
         <v>2.282252145647652e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>71</v>
+        <v>70.20833333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1678528.54461434</v>
+        <v>2113351.475016991</v>
       </c>
     </row>
     <row r="6">
@@ -17378,28 +17378,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1306.401748545262</v>
+        <v>1647.965322086987</v>
       </c>
       <c r="AB6" t="n">
-        <v>1787.476506737142</v>
+        <v>2254.818856778299</v>
       </c>
       <c r="AC6" t="n">
-        <v>1616.882257673183</v>
+        <v>2039.622109745519</v>
       </c>
       <c r="AD6" t="n">
-        <v>1306401.748545262</v>
+        <v>1647965.322086987</v>
       </c>
       <c r="AE6" t="n">
-        <v>1787476.506737142</v>
+        <v>2254818.856778299</v>
       </c>
       <c r="AF6" t="n">
         <v>2.344335409288288e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>69</v>
+        <v>68.359375</v>
       </c>
       <c r="AH6" t="n">
-        <v>1616882.257673183</v>
+        <v>2039622.109745519</v>
       </c>
     </row>
     <row r="7">
@@ -17484,28 +17484,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1278.219345808208</v>
+        <v>1610.054249791943</v>
       </c>
       <c r="AB7" t="n">
-        <v>1748.916099992446</v>
+        <v>2202.94725514575</v>
       </c>
       <c r="AC7" t="n">
-        <v>1582.002002028329</v>
+        <v>1992.701060970531</v>
       </c>
       <c r="AD7" t="n">
-        <v>1278219.345808208</v>
+        <v>1610054.249791943</v>
       </c>
       <c r="AE7" t="n">
-        <v>1748916.099992446</v>
+        <v>2202947.25514575</v>
       </c>
       <c r="AF7" t="n">
         <v>2.381253108182621e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>68</v>
+        <v>67.29166666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1582002.002028329</v>
+        <v>1992701.060970531</v>
       </c>
     </row>
     <row r="8">
@@ -17590,28 +17590,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1253.280261210286</v>
+        <v>1585.182485001726</v>
       </c>
       <c r="AB8" t="n">
-        <v>1714.793344210808</v>
+        <v>2168.916609294954</v>
       </c>
       <c r="AC8" t="n">
-        <v>1551.135874166902</v>
+        <v>1961.918252197423</v>
       </c>
       <c r="AD8" t="n">
-        <v>1253280.261210287</v>
+        <v>1585182.485001726</v>
       </c>
       <c r="AE8" t="n">
-        <v>1714793.344210808</v>
+        <v>2168916.609294954</v>
       </c>
       <c r="AF8" t="n">
         <v>2.408756793858899e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>67</v>
+        <v>66.51041666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1551135.874166902</v>
+        <v>1961918.252197423</v>
       </c>
     </row>
     <row r="9">
@@ -17696,28 +17696,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1232.327267569171</v>
+        <v>1564.195325941829</v>
       </c>
       <c r="AB9" t="n">
-        <v>1686.124533930194</v>
+        <v>2140.201052381092</v>
       </c>
       <c r="AC9" t="n">
-        <v>1525.203174902542</v>
+        <v>1935.943267732882</v>
       </c>
       <c r="AD9" t="n">
-        <v>1232327.267569171</v>
+        <v>1564195.325941829</v>
       </c>
       <c r="AE9" t="n">
-        <v>1686124.533930194</v>
+        <v>2140201.052381092</v>
       </c>
       <c r="AF9" t="n">
         <v>2.428815410258153e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>66</v>
+        <v>65.96354166666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1525203.174902542</v>
+        <v>1935943.267732882</v>
       </c>
     </row>
     <row r="10">
@@ -17802,28 +17802,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1221.65543709447</v>
+        <v>1553.52349546713</v>
       </c>
       <c r="AB10" t="n">
-        <v>1671.522864666776</v>
+        <v>2125.599383117674</v>
       </c>
       <c r="AC10" t="n">
-        <v>1511.995068460054</v>
+        <v>1922.735161290394</v>
       </c>
       <c r="AD10" t="n">
-        <v>1221655.43709447</v>
+        <v>1553523.49546713</v>
       </c>
       <c r="AE10" t="n">
-        <v>1671522.864666776</v>
+        <v>2125599.383117674</v>
       </c>
       <c r="AF10" t="n">
         <v>2.44438237329193e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>66</v>
+        <v>65.546875</v>
       </c>
       <c r="AH10" t="n">
-        <v>1511995.068460054</v>
+        <v>1922735.161290394</v>
       </c>
     </row>
     <row r="11">
@@ -17908,28 +17908,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1210.096335800514</v>
+        <v>1532.168404807479</v>
       </c>
       <c r="AB11" t="n">
-        <v>1655.707192324827</v>
+        <v>2096.380405957032</v>
       </c>
       <c r="AC11" t="n">
-        <v>1497.688821688984</v>
+        <v>1896.304802300871</v>
       </c>
       <c r="AD11" t="n">
-        <v>1210096.335800515</v>
+        <v>1532168.404807479</v>
       </c>
       <c r="AE11" t="n">
-        <v>1655707.192324827</v>
+        <v>2096380.405957032</v>
       </c>
       <c r="AF11" t="n">
         <v>2.464133342200398e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>66</v>
+        <v>65.02604166666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>1497688.821688985</v>
+        <v>1896304.802300871</v>
       </c>
     </row>
     <row r="12">
@@ -18014,28 +18014,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1192.386542681517</v>
+        <v>1524.220435635395</v>
       </c>
       <c r="AB12" t="n">
-        <v>1631.475872078484</v>
+        <v>2085.505643896134</v>
       </c>
       <c r="AC12" t="n">
-        <v>1475.770104638081</v>
+        <v>1886.467912268242</v>
       </c>
       <c r="AD12" t="n">
-        <v>1192386.542681517</v>
+        <v>1524220.435635395</v>
       </c>
       <c r="AE12" t="n">
-        <v>1631475.872078484</v>
+        <v>2085505.643896134</v>
       </c>
       <c r="AF12" t="n">
         <v>2.47360888491661e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>65</v>
+        <v>64.765625</v>
       </c>
       <c r="AH12" t="n">
-        <v>1475770.104638081</v>
+        <v>1886467.912268242</v>
       </c>
     </row>
     <row r="13">
@@ -18120,28 +18120,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1183.357603838</v>
+        <v>1505.496992652669</v>
       </c>
       <c r="AB13" t="n">
-        <v>1619.122079624115</v>
+        <v>2059.887403187161</v>
       </c>
       <c r="AC13" t="n">
-        <v>1464.5953407969</v>
+        <v>1863.294640497106</v>
       </c>
       <c r="AD13" t="n">
-        <v>1183357.603838</v>
+        <v>1505496.992652669</v>
       </c>
       <c r="AE13" t="n">
-        <v>1619122.079624115</v>
+        <v>2059887.403187161</v>
       </c>
       <c r="AF13" t="n">
         <v>2.479638775736018e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>65</v>
+        <v>64.609375</v>
       </c>
       <c r="AH13" t="n">
-        <v>1464595.3407969</v>
+        <v>1863294.640497106</v>
       </c>
     </row>
     <row r="14">
@@ -18226,28 +18226,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1174.412886864019</v>
+        <v>1496.450790452202</v>
       </c>
       <c r="AB14" t="n">
-        <v>1606.883523247251</v>
+        <v>2047.509990246208</v>
       </c>
       <c r="AC14" t="n">
-        <v>1453.524815063722</v>
+        <v>1852.098510475429</v>
       </c>
       <c r="AD14" t="n">
-        <v>1174412.886864019</v>
+        <v>1496450.790452202</v>
       </c>
       <c r="AE14" t="n">
-        <v>1606883.523247251</v>
+        <v>2047509.990246208</v>
       </c>
       <c r="AF14" t="n">
         <v>2.49089867389879e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>65</v>
+        <v>64.32291666666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>1453524.815063722</v>
+        <v>1852098.510475429</v>
       </c>
     </row>
     <row r="15">
@@ -18332,28 +18332,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1167.042411802195</v>
+        <v>1489.080315390379</v>
       </c>
       <c r="AB15" t="n">
-        <v>1596.798914105254</v>
+        <v>2037.425381104211</v>
       </c>
       <c r="AC15" t="n">
-        <v>1444.402666864399</v>
+        <v>1842.976362276106</v>
       </c>
       <c r="AD15" t="n">
-        <v>1167042.411802195</v>
+        <v>1489080.315390379</v>
       </c>
       <c r="AE15" t="n">
-        <v>1596798.914105254</v>
+        <v>2037425.381104211</v>
       </c>
       <c r="AF15" t="n">
         <v>2.498282213677656e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>65</v>
+        <v>64.140625</v>
       </c>
       <c r="AH15" t="n">
-        <v>1444402.666864399</v>
+        <v>1842976.362276106</v>
       </c>
     </row>
     <row r="16">
@@ -18438,28 +18438,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1160.409050444622</v>
+        <v>1482.446954032805</v>
       </c>
       <c r="AB16" t="n">
-        <v>1587.722856452573</v>
+        <v>2028.34932345153</v>
       </c>
       <c r="AC16" t="n">
-        <v>1436.192815415763</v>
+        <v>1834.76651082747</v>
       </c>
       <c r="AD16" t="n">
-        <v>1160409.050444622</v>
+        <v>1482446.954032806</v>
       </c>
       <c r="AE16" t="n">
-        <v>1587722.856452573</v>
+        <v>2028349.32345153</v>
       </c>
       <c r="AF16" t="n">
         <v>2.502281631057875e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>65</v>
+        <v>64.03645833333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>1436192.815415763</v>
+        <v>1834766.51082747</v>
       </c>
     </row>
     <row r="17">
@@ -18544,28 +18544,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1142.256738196467</v>
+        <v>1464.361961592355</v>
       </c>
       <c r="AB17" t="n">
-        <v>1562.88606201115</v>
+        <v>2003.604638940948</v>
       </c>
       <c r="AC17" t="n">
-        <v>1413.72640977717</v>
+        <v>1812.383424277196</v>
       </c>
       <c r="AD17" t="n">
-        <v>1142256.738196468</v>
+        <v>1464361.961592355</v>
       </c>
       <c r="AE17" t="n">
-        <v>1562886.06201115</v>
+        <v>2003604.638940948</v>
       </c>
       <c r="AF17" t="n">
         <v>2.509234464349641e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>64</v>
+        <v>63.85416666666666</v>
       </c>
       <c r="AH17" t="n">
-        <v>1413726.40977717</v>
+        <v>1812383.424277196</v>
       </c>
     </row>
     <row r="18">
@@ -18650,28 +18650,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1139.529078614867</v>
+        <v>1461.634302010754</v>
       </c>
       <c r="AB18" t="n">
-        <v>1559.153957835757</v>
+        <v>1999.872534765555</v>
       </c>
       <c r="AC18" t="n">
-        <v>1410.350492386235</v>
+        <v>1809.007506886261</v>
       </c>
       <c r="AD18" t="n">
-        <v>1139529.078614867</v>
+        <v>1461634.302010755</v>
       </c>
       <c r="AE18" t="n">
-        <v>1559153.957835756</v>
+        <v>1999872.534765555</v>
       </c>
       <c r="AF18" t="n">
         <v>2.508865287360698e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>64</v>
+        <v>63.85416666666666</v>
       </c>
       <c r="AH18" t="n">
-        <v>1410350.492386235</v>
+        <v>1809007.506886261</v>
       </c>
     </row>
     <row r="19">
@@ -18756,28 +18756,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1139.415890114644</v>
+        <v>1461.521113510531</v>
       </c>
       <c r="AB19" t="n">
-        <v>1558.999088336227</v>
+        <v>1999.717665266025</v>
       </c>
       <c r="AC19" t="n">
-        <v>1410.210403414379</v>
+        <v>1808.867417914406</v>
       </c>
       <c r="AD19" t="n">
-        <v>1139415.890114644</v>
+        <v>1461521.113510531</v>
       </c>
       <c r="AE19" t="n">
-        <v>1558999.088336227</v>
+        <v>1999717.665266025</v>
       </c>
       <c r="AF19" t="n">
         <v>2.513726117715118e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>64</v>
+        <v>63.75</v>
       </c>
       <c r="AH19" t="n">
-        <v>1410210.40341438</v>
+        <v>1808867.417914406</v>
       </c>
     </row>
   </sheetData>
@@ -19053,28 +19053,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1441.794240460369</v>
+        <v>1841.555073169462</v>
       </c>
       <c r="AB2" t="n">
-        <v>1972.726487270575</v>
+        <v>2519.696894786394</v>
       </c>
       <c r="AC2" t="n">
-        <v>1784.452240064485</v>
+        <v>2279.220559564783</v>
       </c>
       <c r="AD2" t="n">
-        <v>1441794.240460369</v>
+        <v>1841555.073169462</v>
       </c>
       <c r="AE2" t="n">
-        <v>1972726.487270575</v>
+        <v>2519696.894786394</v>
       </c>
       <c r="AF2" t="n">
         <v>2.45066778957043e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>82</v>
+        <v>81.51041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1784452.240064485</v>
+        <v>2279220.559564783</v>
       </c>
     </row>
     <row r="3">
@@ -19159,28 +19159,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1191.985154232448</v>
+        <v>1534.5602151986</v>
       </c>
       <c r="AB3" t="n">
-        <v>1630.926674694459</v>
+        <v>2099.652986453392</v>
       </c>
       <c r="AC3" t="n">
-        <v>1475.273321881583</v>
+        <v>1899.265052307754</v>
       </c>
       <c r="AD3" t="n">
-        <v>1191985.154232448</v>
+        <v>1534560.2151986</v>
       </c>
       <c r="AE3" t="n">
-        <v>1630926.674694459</v>
+        <v>2099652.986453392</v>
       </c>
       <c r="AF3" t="n">
         <v>2.842173263856557e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>71</v>
+        <v>70.28645833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1475273.321881583</v>
+        <v>1899265.052307754</v>
       </c>
     </row>
     <row r="4">
@@ -19265,28 +19265,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1107.933808914201</v>
+        <v>1441.02228228007</v>
       </c>
       <c r="AB4" t="n">
-        <v>1515.923915946381</v>
+        <v>1971.6702600319</v>
       </c>
       <c r="AC4" t="n">
-        <v>1371.246265021036</v>
+        <v>1783.496817671045</v>
       </c>
       <c r="AD4" t="n">
-        <v>1107933.808914201</v>
+        <v>1441022.28228007</v>
       </c>
       <c r="AE4" t="n">
-        <v>1515923.915946381</v>
+        <v>1971670.2600319</v>
       </c>
       <c r="AF4" t="n">
         <v>2.983388306599653e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>67</v>
+        <v>66.953125</v>
       </c>
       <c r="AH4" t="n">
-        <v>1371246.265021036</v>
+        <v>1783496.817671045</v>
       </c>
     </row>
     <row r="5">
@@ -19371,28 +19371,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1072.043327764938</v>
+        <v>1386.093328182253</v>
       </c>
       <c r="AB5" t="n">
-        <v>1466.816976261681</v>
+        <v>1896.514041740839</v>
       </c>
       <c r="AC5" t="n">
-        <v>1326.826022737822</v>
+        <v>1715.513403371268</v>
       </c>
       <c r="AD5" t="n">
-        <v>1072043.327764938</v>
+        <v>1386093.328182253</v>
       </c>
       <c r="AE5" t="n">
-        <v>1466816.976261681</v>
+        <v>1896514.041740839</v>
       </c>
       <c r="AF5" t="n">
         <v>3.059173457186388e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>66</v>
+        <v>65.28645833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1326826.022737822</v>
+        <v>1715513.403371268</v>
       </c>
     </row>
     <row r="6">
@@ -19477,28 +19477,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1043.150542783565</v>
+        <v>1357.1663777821</v>
       </c>
       <c r="AB6" t="n">
-        <v>1427.284593190454</v>
+        <v>1856.934912036365</v>
       </c>
       <c r="AC6" t="n">
-        <v>1291.066554822865</v>
+        <v>1679.711650256131</v>
       </c>
       <c r="AD6" t="n">
-        <v>1043150.542783565</v>
+        <v>1357166.377782099</v>
       </c>
       <c r="AE6" t="n">
-        <v>1427284.593190454</v>
+        <v>1856934.912036365</v>
       </c>
       <c r="AF6" t="n">
         <v>3.099980845963861e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>65</v>
+        <v>64.42708333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1291066.554822865</v>
+        <v>1679711.650256131</v>
       </c>
     </row>
     <row r="7">
@@ -19583,28 +19583,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1017.274201178634</v>
+        <v>1331.357355984873</v>
       </c>
       <c r="AB7" t="n">
-        <v>1391.879441022965</v>
+        <v>1821.621869799717</v>
       </c>
       <c r="AC7" t="n">
-        <v>1259.040420686797</v>
+        <v>1647.768835208383</v>
       </c>
       <c r="AD7" t="n">
-        <v>1017274.201178634</v>
+        <v>1331357.355984873</v>
       </c>
       <c r="AE7" t="n">
-        <v>1391879.441022965</v>
+        <v>1821621.869799717</v>
       </c>
       <c r="AF7" t="n">
         <v>3.135342135863136e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>64</v>
+        <v>63.69791666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>1259040.420686797</v>
+        <v>1647768.835208383</v>
       </c>
     </row>
     <row r="8">
@@ -19689,28 +19689,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1002.968625334057</v>
+        <v>1307.498883762165</v>
       </c>
       <c r="AB8" t="n">
-        <v>1372.305921034949</v>
+        <v>1788.9776555431</v>
       </c>
       <c r="AC8" t="n">
-        <v>1241.33496997483</v>
+        <v>1618.240138943975</v>
       </c>
       <c r="AD8" t="n">
-        <v>1002968.625334057</v>
+        <v>1307498.883762165</v>
       </c>
       <c r="AE8" t="n">
-        <v>1372305.921034949</v>
+        <v>1788977.6555431</v>
       </c>
       <c r="AF8" t="n">
         <v>3.157663470701942e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>64</v>
+        <v>63.25520833333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>1241334.96997483</v>
+        <v>1618240.138943975</v>
       </c>
     </row>
     <row r="9">
@@ -19795,28 +19795,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1000.236876893098</v>
+        <v>1304.767135321206</v>
       </c>
       <c r="AB9" t="n">
-        <v>1368.568222301794</v>
+        <v>1785.239956809944</v>
       </c>
       <c r="AC9" t="n">
-        <v>1237.953991962874</v>
+        <v>1614.859160932018</v>
       </c>
       <c r="AD9" t="n">
-        <v>1000236.876893098</v>
+        <v>1304767.135321206</v>
       </c>
       <c r="AE9" t="n">
-        <v>1368568.222301794</v>
+        <v>1785239.956809944</v>
       </c>
       <c r="AF9" t="n">
         <v>3.156589592049903e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>64</v>
+        <v>63.28125</v>
       </c>
       <c r="AH9" t="n">
-        <v>1237953.991962874</v>
+        <v>1614859.160932018</v>
       </c>
     </row>
   </sheetData>
@@ -20092,28 +20092,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1221.088204792555</v>
+        <v>1587.554790105734</v>
       </c>
       <c r="AB2" t="n">
-        <v>1670.746752406772</v>
+        <v>2172.162501796972</v>
       </c>
       <c r="AC2" t="n">
-        <v>1511.293027264864</v>
+        <v>1964.854361274687</v>
       </c>
       <c r="AD2" t="n">
-        <v>1221088.204792555</v>
+        <v>1587554.790105734</v>
       </c>
       <c r="AE2" t="n">
-        <v>1670746.752406772</v>
+        <v>2172162.501796972</v>
       </c>
       <c r="AF2" t="n">
         <v>3.011779778099646e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>76</v>
+        <v>75.41666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1511293.027264864</v>
+        <v>1964854.361274687</v>
       </c>
     </row>
     <row r="3">
@@ -20198,28 +20198,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1049.205178258946</v>
+        <v>1368.735427566452</v>
       </c>
       <c r="AB3" t="n">
-        <v>1435.568812559535</v>
+        <v>1872.764196341771</v>
       </c>
       <c r="AC3" t="n">
-        <v>1298.560139922335</v>
+        <v>1694.03020988397</v>
       </c>
       <c r="AD3" t="n">
-        <v>1049205.178258946</v>
+        <v>1368735.427566452</v>
       </c>
       <c r="AE3" t="n">
-        <v>1435568.812559535</v>
+        <v>1872764.196341771</v>
       </c>
       <c r="AF3" t="n">
         <v>3.37775319181214e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>68</v>
+        <v>67.23958333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1298560.139922335</v>
+        <v>1694030.20988397</v>
       </c>
     </row>
     <row r="4">
@@ -20304,28 +20304,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>986.1872431581003</v>
+        <v>1305.71648143575</v>
       </c>
       <c r="AB4" t="n">
-        <v>1349.344893599475</v>
+        <v>1786.538894046057</v>
       </c>
       <c r="AC4" t="n">
-        <v>1220.565310771793</v>
+        <v>1616.034129421387</v>
       </c>
       <c r="AD4" t="n">
-        <v>986187.2431581003</v>
+        <v>1305716.48143575</v>
       </c>
       <c r="AE4" t="n">
-        <v>1349344.893599476</v>
+        <v>1786538.894046057</v>
       </c>
       <c r="AF4" t="n">
         <v>3.501953892747934e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>65</v>
+        <v>64.86979166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1220565.310771793</v>
+        <v>1616034.129421387</v>
       </c>
     </row>
     <row r="5">
@@ -20410,28 +20410,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>952.4465918524069</v>
+        <v>1262.60906218019</v>
       </c>
       <c r="AB5" t="n">
-        <v>1303.179445950545</v>
+        <v>1727.557421255483</v>
       </c>
       <c r="AC5" t="n">
-        <v>1178.805828652864</v>
+        <v>1562.681765612928</v>
       </c>
       <c r="AD5" t="n">
-        <v>952446.5918524069</v>
+        <v>1262609.06218019</v>
       </c>
       <c r="AE5" t="n">
-        <v>1303179.445950545</v>
+        <v>1727557.421255483</v>
       </c>
       <c r="AF5" t="n">
         <v>3.564839219556015e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>64</v>
+        <v>63.72395833333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>1178805.828652864</v>
+        <v>1562681.765612928</v>
       </c>
     </row>
     <row r="6">
@@ -20516,28 +20516,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>944.8687119753698</v>
+        <v>1245.597094545583</v>
       </c>
       <c r="AB6" t="n">
-        <v>1292.811056390318</v>
+        <v>1704.280896622769</v>
       </c>
       <c r="AC6" t="n">
-        <v>1169.426983640139</v>
+        <v>1541.626719822353</v>
       </c>
       <c r="AD6" t="n">
-        <v>944868.7119753698</v>
+        <v>1245597.094545583</v>
       </c>
       <c r="AE6" t="n">
-        <v>1292811.056390318</v>
+        <v>1704280.89662277</v>
       </c>
       <c r="AF6" t="n">
         <v>3.586818557081169e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>64</v>
+        <v>63.33333333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>1169426.983640139</v>
+        <v>1541626.719822353</v>
       </c>
     </row>
     <row r="7">
@@ -20622,28 +20622,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>946.981860344389</v>
+        <v>1247.710242914602</v>
       </c>
       <c r="AB7" t="n">
-        <v>1295.702359214336</v>
+        <v>1707.172199446788</v>
       </c>
       <c r="AC7" t="n">
-        <v>1172.042344580602</v>
+        <v>1544.242080762816</v>
       </c>
       <c r="AD7" t="n">
-        <v>946981.860344389</v>
+        <v>1247710.242914602</v>
       </c>
       <c r="AE7" t="n">
-        <v>1295702.359214336</v>
+        <v>1707172.199446788</v>
       </c>
       <c r="AF7" t="n">
         <v>3.586556898301107e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>64</v>
+        <v>63.33333333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>1172042.344580602</v>
+        <v>1544242.080762816</v>
       </c>
     </row>
   </sheetData>
@@ -38428,28 +38428,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1074.054165618731</v>
+        <v>1418.205144007819</v>
       </c>
       <c r="AB2" t="n">
-        <v>1469.568293325145</v>
+        <v>1940.450844826709</v>
       </c>
       <c r="AC2" t="n">
-        <v>1329.314757962246</v>
+        <v>1755.256939636313</v>
       </c>
       <c r="AD2" t="n">
-        <v>1074054.165618731</v>
+        <v>1418205.144007819</v>
       </c>
       <c r="AE2" t="n">
-        <v>1469568.293325145</v>
+        <v>1940450.844826709</v>
       </c>
       <c r="AF2" t="n">
         <v>3.570326059424357e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>72</v>
+        <v>71.45833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1329314.757962246</v>
+        <v>1755256.939636313</v>
       </c>
     </row>
     <row r="3">
@@ -38534,28 +38534,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>947.3587315925017</v>
+        <v>1254.354171148542</v>
       </c>
       <c r="AB3" t="n">
-        <v>1296.21801108239</v>
+        <v>1716.262715165893</v>
       </c>
       <c r="AC3" t="n">
-        <v>1172.508783358091</v>
+        <v>1552.465010420309</v>
       </c>
       <c r="AD3" t="n">
-        <v>947358.7315925017</v>
+        <v>1254354.171148542</v>
       </c>
       <c r="AE3" t="n">
-        <v>1296218.01108239</v>
+        <v>1716262.715165893</v>
       </c>
       <c r="AF3" t="n">
         <v>3.907376593593883e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>66</v>
+        <v>65.28645833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1172508.783358091</v>
+        <v>1552465.010420309</v>
       </c>
     </row>
     <row r="4">
@@ -38640,28 +38640,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>902.2181352382086</v>
+        <v>1209.246729183173</v>
       </c>
       <c r="AB4" t="n">
-        <v>1234.454655687886</v>
+        <v>1654.544723068982</v>
       </c>
       <c r="AC4" t="n">
-        <v>1116.640035917024</v>
+        <v>1496.637296867381</v>
       </c>
       <c r="AD4" t="n">
-        <v>902218.1352382086</v>
+        <v>1209246.729183173</v>
       </c>
       <c r="AE4" t="n">
-        <v>1234454.655687886</v>
+        <v>1654544.723068982</v>
       </c>
       <c r="AF4" t="n">
         <v>4.004936120485149e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>64</v>
+        <v>63.69791666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>1116640.035917024</v>
+        <v>1496637.296867381</v>
       </c>
     </row>
     <row r="5">
@@ -38746,28 +38746,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>901.9549522419022</v>
+        <v>1208.983546186867</v>
       </c>
       <c r="AB5" t="n">
-        <v>1234.094557101525</v>
+        <v>1654.184624482622</v>
       </c>
       <c r="AC5" t="n">
-        <v>1116.314304634344</v>
+        <v>1496.311565584701</v>
       </c>
       <c r="AD5" t="n">
-        <v>901954.9522419022</v>
+        <v>1208983.546186867</v>
       </c>
       <c r="AE5" t="n">
-        <v>1234094.557101525</v>
+        <v>1654184.624482621</v>
       </c>
       <c r="AF5" t="n">
         <v>4.009833687096157e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>64</v>
+        <v>63.61979166666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>1116314.304634344</v>
+        <v>1496311.565584701</v>
       </c>
     </row>
   </sheetData>
@@ -39043,28 +39043,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>835.4301248255746</v>
+        <v>1145.364119362437</v>
       </c>
       <c r="AB2" t="n">
-        <v>1143.072353362252</v>
+        <v>1567.137718010412</v>
       </c>
       <c r="AC2" t="n">
-        <v>1033.979132269483</v>
+        <v>1417.572293695099</v>
       </c>
       <c r="AD2" t="n">
-        <v>835430.1248255746</v>
+        <v>1145364.119362437</v>
       </c>
       <c r="AE2" t="n">
-        <v>1143072.353362252</v>
+        <v>1567137.718010412</v>
       </c>
       <c r="AF2" t="n">
         <v>5.131072675487167e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>66</v>
+        <v>65.75520833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1033979.132269483</v>
+        <v>1417572.293695099</v>
       </c>
     </row>
     <row r="3">
@@ -39149,28 +39149,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>835.30726691795</v>
+        <v>1145.139776228327</v>
       </c>
       <c r="AB3" t="n">
-        <v>1142.904253752932</v>
+        <v>1566.830761837002</v>
       </c>
       <c r="AC3" t="n">
-        <v>1033.827075850946</v>
+        <v>1417.294632988064</v>
       </c>
       <c r="AD3" t="n">
-        <v>835307.26691795</v>
+        <v>1145139.776228327</v>
       </c>
       <c r="AE3" t="n">
-        <v>1142904.253752932</v>
+        <v>1566830.761837002</v>
       </c>
       <c r="AF3" t="n">
         <v>5.152189267152893e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>66</v>
+        <v>65.46875</v>
       </c>
       <c r="AH3" t="n">
-        <v>1033827.075850946</v>
+        <v>1417294.632988064</v>
       </c>
     </row>
   </sheetData>
@@ -39446,28 +39446,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1684.198295727172</v>
+        <v>2116.98222873168</v>
       </c>
       <c r="AB2" t="n">
-        <v>2304.394409798781</v>
+        <v>2896.54848001515</v>
       </c>
       <c r="AC2" t="n">
-        <v>2084.466241565452</v>
+        <v>2620.105958413829</v>
       </c>
       <c r="AD2" t="n">
-        <v>1684198.295727172</v>
+        <v>2116982.22873168</v>
       </c>
       <c r="AE2" t="n">
-        <v>2304394.409798781</v>
+        <v>2896548.48001515</v>
       </c>
       <c r="AF2" t="n">
         <v>2.055359755829989e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>89</v>
+        <v>88.17708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2084466.241565452</v>
+        <v>2620105.958413829</v>
       </c>
     </row>
     <row r="3">
@@ -39552,28 +39552,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1331.864126696013</v>
+        <v>1697.27084793622</v>
       </c>
       <c r="AB3" t="n">
-        <v>1822.315255843845</v>
+        <v>2322.2808524515</v>
       </c>
       <c r="AC3" t="n">
-        <v>1648.396045461633</v>
+        <v>2100.645627235176</v>
       </c>
       <c r="AD3" t="n">
-        <v>1331864.126696013</v>
+        <v>1697270.84793622</v>
       </c>
       <c r="AE3" t="n">
-        <v>1822315.255843845</v>
+        <v>2322280.8524515</v>
       </c>
       <c r="AF3" t="n">
         <v>2.466946712657218e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>74</v>
+        <v>73.46354166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1648396.045461633</v>
+        <v>2100645.627235176</v>
       </c>
     </row>
     <row r="4">
@@ -39658,28 +39658,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1232.005919623637</v>
+        <v>1568.619666124754</v>
       </c>
       <c r="AB4" t="n">
-        <v>1685.684851494244</v>
+        <v>2146.254629807483</v>
       </c>
       <c r="AC4" t="n">
-        <v>1524.805455141181</v>
+        <v>1941.419100225947</v>
       </c>
       <c r="AD4" t="n">
-        <v>1232005.919623637</v>
+        <v>1568619.666124754</v>
       </c>
       <c r="AE4" t="n">
-        <v>1685684.851494244</v>
+        <v>2146254.629807482</v>
       </c>
       <c r="AF4" t="n">
         <v>2.622144364622846e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>70</v>
+        <v>69.11458333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1524805.455141181</v>
+        <v>1941419.100225947</v>
       </c>
     </row>
     <row r="5">
@@ -39764,28 +39764,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1182.088489000306</v>
+        <v>1509.081800309205</v>
       </c>
       <c r="AB5" t="n">
-        <v>1617.385620713787</v>
+        <v>2064.792295173387</v>
       </c>
       <c r="AC5" t="n">
-        <v>1463.024607087838</v>
+        <v>1867.731416476225</v>
       </c>
       <c r="AD5" t="n">
-        <v>1182088.489000306</v>
+        <v>1509081.800309205</v>
       </c>
       <c r="AE5" t="n">
-        <v>1617385.620713787</v>
+        <v>2064792.295173387</v>
       </c>
       <c r="AF5" t="n">
         <v>2.701831051394435e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>68</v>
+        <v>67.08333333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1463024.607087838</v>
+        <v>1867731.416476225</v>
       </c>
     </row>
     <row r="6">
@@ -39870,28 +39870,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1141.059977711469</v>
+        <v>1468.086443409293</v>
       </c>
       <c r="AB6" t="n">
-        <v>1561.248601518229</v>
+        <v>2008.700639275423</v>
       </c>
       <c r="AC6" t="n">
-        <v>1412.245226215504</v>
+        <v>1816.993069492029</v>
       </c>
       <c r="AD6" t="n">
-        <v>1141059.977711469</v>
+        <v>1468086.443409292</v>
       </c>
       <c r="AE6" t="n">
-        <v>1561248.601518229</v>
+        <v>2008700.639275423</v>
       </c>
       <c r="AF6" t="n">
         <v>2.753262022157932e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>66</v>
+        <v>65.83333333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1412245.226215504</v>
+        <v>1816993.069492029</v>
       </c>
     </row>
     <row r="7">
@@ -39976,28 +39976,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1124.677403505196</v>
+        <v>1442.050279621878</v>
       </c>
       <c r="AB7" t="n">
-        <v>1538.833240741041</v>
+        <v>1973.076811347003</v>
       </c>
       <c r="AC7" t="n">
-        <v>1391.969156010733</v>
+        <v>1784.769129702742</v>
       </c>
       <c r="AD7" t="n">
-        <v>1124677.403505196</v>
+        <v>1442050.279621878</v>
       </c>
       <c r="AE7" t="n">
-        <v>1538833.240741041</v>
+        <v>1973076.811347003</v>
       </c>
       <c r="AF7" t="n">
         <v>2.787294153014968e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>66</v>
+        <v>65.02604166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1391969.156010733</v>
+        <v>1784769.129702742</v>
       </c>
     </row>
     <row r="8">
@@ -40082,28 +40082,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1101.804221053698</v>
+        <v>1419.244416978084</v>
       </c>
       <c r="AB8" t="n">
-        <v>1507.53714341731</v>
+        <v>1941.872823954113</v>
       </c>
       <c r="AC8" t="n">
-        <v>1363.659914291231</v>
+        <v>1756.543207071558</v>
       </c>
       <c r="AD8" t="n">
-        <v>1101804.221053698</v>
+        <v>1419244.416978084</v>
       </c>
       <c r="AE8" t="n">
-        <v>1507537.14341731</v>
+        <v>1941872.823954113</v>
       </c>
       <c r="AF8" t="n">
         <v>2.808659928420102e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>65</v>
+        <v>64.53125</v>
       </c>
       <c r="AH8" t="n">
-        <v>1363659.914291231</v>
+        <v>1756543.207071558</v>
       </c>
     </row>
     <row r="9">
@@ -40188,28 +40188,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1078.940105369354</v>
+        <v>1396.346135874959</v>
       </c>
       <c r="AB9" t="n">
-        <v>1476.253451644396</v>
+        <v>1910.542385547952</v>
       </c>
       <c r="AC9" t="n">
-        <v>1335.361894154187</v>
+        <v>1728.202901734334</v>
       </c>
       <c r="AD9" t="n">
-        <v>1078940.105369354</v>
+        <v>1396346.135874959</v>
       </c>
       <c r="AE9" t="n">
-        <v>1476253.451644396</v>
+        <v>1910542.385547952</v>
       </c>
       <c r="AF9" t="n">
         <v>2.833018304289147e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>64</v>
+        <v>63.984375</v>
       </c>
       <c r="AH9" t="n">
-        <v>1335361.894154187</v>
+        <v>1728202.901734334</v>
       </c>
     </row>
     <row r="10">
@@ -40294,28 +40294,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1062.78410427312</v>
+        <v>1380.190134778725</v>
       </c>
       <c r="AB10" t="n">
-        <v>1454.148098192064</v>
+        <v>1888.43703209562</v>
       </c>
       <c r="AC10" t="n">
-        <v>1315.366244610287</v>
+        <v>1708.207252190434</v>
       </c>
       <c r="AD10" t="n">
-        <v>1062784.104273119</v>
+        <v>1380190.134778725</v>
       </c>
       <c r="AE10" t="n">
-        <v>1454148.098192064</v>
+        <v>1888437.03209562</v>
       </c>
       <c r="AF10" t="n">
         <v>2.847772520529825e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>64</v>
+        <v>63.64583333333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>1315366.244610287</v>
+        <v>1708207.252190434</v>
       </c>
     </row>
     <row r="11">
@@ -40400,28 +40400,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1056.068782731091</v>
+        <v>1373.474813236697</v>
       </c>
       <c r="AB11" t="n">
-        <v>1444.959898999183</v>
+        <v>1879.248832902739</v>
       </c>
       <c r="AC11" t="n">
-        <v>1307.054954252656</v>
+        <v>1699.895961832803</v>
       </c>
       <c r="AD11" t="n">
-        <v>1056068.782731091</v>
+        <v>1373474.813236697</v>
       </c>
       <c r="AE11" t="n">
-        <v>1444959.898999183</v>
+        <v>1879248.832902739</v>
       </c>
       <c r="AF11" t="n">
         <v>2.853618530738395e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>64</v>
+        <v>63.515625</v>
       </c>
       <c r="AH11" t="n">
-        <v>1307054.954252656</v>
+        <v>1699895.961832803</v>
       </c>
     </row>
     <row r="12">
@@ -40506,28 +40506,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1054.375675935616</v>
+        <v>1371.680221214737</v>
       </c>
       <c r="AB12" t="n">
-        <v>1442.643315587014</v>
+        <v>1876.793392926481</v>
       </c>
       <c r="AC12" t="n">
-        <v>1304.959462309999</v>
+        <v>1697.674865601647</v>
       </c>
       <c r="AD12" t="n">
-        <v>1054375.675935616</v>
+        <v>1371680.221214737</v>
       </c>
       <c r="AE12" t="n">
-        <v>1442643.315587014</v>
+        <v>1876793.392926481</v>
       </c>
       <c r="AF12" t="n">
         <v>2.858142229114075e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>64</v>
+        <v>63.41145833333334</v>
       </c>
       <c r="AH12" t="n">
-        <v>1304959.462309999</v>
+        <v>1697674.865601647</v>
       </c>
     </row>
     <row r="13">
@@ -40612,28 +40612,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1056.076670463875</v>
+        <v>1373.381215742996</v>
       </c>
       <c r="AB13" t="n">
-        <v>1444.970691343161</v>
+        <v>1879.120768682627</v>
       </c>
       <c r="AC13" t="n">
-        <v>1307.064716590472</v>
+        <v>1699.78011988212</v>
       </c>
       <c r="AD13" t="n">
-        <v>1056076.670463875</v>
+        <v>1373381.215742996</v>
       </c>
       <c r="AE13" t="n">
-        <v>1444970.691343161</v>
+        <v>1879120.768682627</v>
       </c>
       <c r="AF13" t="n">
         <v>2.857585466237068e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>64</v>
+        <v>63.41145833333334</v>
       </c>
       <c r="AH13" t="n">
-        <v>1307064.716590472</v>
+        <v>1699780.11988212</v>
       </c>
     </row>
   </sheetData>
@@ -40909,28 +40909,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2049.420304089102</v>
+        <v>2536.101093091835</v>
       </c>
       <c r="AB2" t="n">
-        <v>2804.107274097422</v>
+        <v>3470.005400452236</v>
       </c>
       <c r="AC2" t="n">
-        <v>2536.487211446841</v>
+        <v>3138.832955216111</v>
       </c>
       <c r="AD2" t="n">
-        <v>2049420.304089102</v>
+        <v>2536101.093091835</v>
       </c>
       <c r="AE2" t="n">
-        <v>2804107.274097422</v>
+        <v>3470005.400452236</v>
       </c>
       <c r="AF2" t="n">
         <v>1.665602141585964e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>99</v>
+        <v>98.33333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2536487.211446841</v>
+        <v>3138832.955216111</v>
       </c>
     </row>
     <row r="3">
@@ -41015,28 +41015,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1520.624184544974</v>
+        <v>1919.677003381208</v>
       </c>
       <c r="AB3" t="n">
-        <v>2080.58509449882</v>
+        <v>2626.586766198425</v>
       </c>
       <c r="AC3" t="n">
-        <v>1882.016973199372</v>
+        <v>2375.909011670127</v>
       </c>
       <c r="AD3" t="n">
-        <v>1520624.184544974</v>
+        <v>1919677.003381208</v>
       </c>
       <c r="AE3" t="n">
-        <v>2080585.09449882</v>
+        <v>2626586.766198425</v>
       </c>
       <c r="AF3" t="n">
         <v>2.10184325221731e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>78</v>
+        <v>77.91666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1882016.973199372</v>
+        <v>2375909.011670127</v>
       </c>
     </row>
     <row r="4">
@@ -41121,28 +41121,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1387.911518266871</v>
+        <v>1748.020032961122</v>
       </c>
       <c r="AB4" t="n">
-        <v>1899.001769627499</v>
+        <v>2391.718126298602</v>
       </c>
       <c r="AC4" t="n">
-        <v>1717.763705999973</v>
+        <v>2163.455905122136</v>
       </c>
       <c r="AD4" t="n">
-        <v>1387911.518266871</v>
+        <v>1748020.032961122</v>
       </c>
       <c r="AE4" t="n">
-        <v>1899001.769627499</v>
+        <v>2391718.126298602</v>
       </c>
       <c r="AF4" t="n">
         <v>2.266856467482792e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>73</v>
+        <v>72.23958333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1717763.705999973</v>
+        <v>2163455.905122136</v>
       </c>
     </row>
     <row r="5">
@@ -41227,28 +41227,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1315.686559672786</v>
+        <v>1666.024580155296</v>
       </c>
       <c r="AB5" t="n">
-        <v>1800.180394938779</v>
+        <v>2279.528330385595</v>
       </c>
       <c r="AC5" t="n">
-        <v>1628.373704614874</v>
+        <v>2061.973345871699</v>
       </c>
       <c r="AD5" t="n">
-        <v>1315686.559672785</v>
+        <v>1666024.580155296</v>
       </c>
       <c r="AE5" t="n">
-        <v>1800180.394938779</v>
+        <v>2279528.330385596</v>
       </c>
       <c r="AF5" t="n">
         <v>2.358104247722966e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>70</v>
+        <v>69.453125</v>
       </c>
       <c r="AH5" t="n">
-        <v>1628373.704614874</v>
+        <v>2061973.345871699</v>
       </c>
     </row>
     <row r="6">
@@ -41333,28 +41333,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1270.176736088355</v>
+        <v>1610.879913004391</v>
       </c>
       <c r="AB6" t="n">
-        <v>1737.911846558845</v>
+        <v>2204.076963978712</v>
       </c>
       <c r="AC6" t="n">
-        <v>1572.047979097864</v>
+        <v>1993.722951978031</v>
       </c>
       <c r="AD6" t="n">
-        <v>1270176.736088355</v>
+        <v>1610879.913004391</v>
       </c>
       <c r="AE6" t="n">
-        <v>1737911.846558845</v>
+        <v>2204076.963978712</v>
       </c>
       <c r="AF6" t="n">
         <v>2.412940956454483e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>68</v>
+        <v>67.86458333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1572047.979097864</v>
+        <v>1993722.951978031</v>
       </c>
     </row>
     <row r="7">
@@ -41439,28 +41439,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1241.474609456091</v>
+        <v>1582.143620953346</v>
       </c>
       <c r="AB7" t="n">
-        <v>1698.64033065212</v>
+        <v>2164.75870143874</v>
       </c>
       <c r="AC7" t="n">
-        <v>1536.524481551359</v>
+        <v>1958.157169231346</v>
       </c>
       <c r="AD7" t="n">
-        <v>1241474.609456091</v>
+        <v>1582143.620953346</v>
       </c>
       <c r="AE7" t="n">
-        <v>1698640.33065212</v>
+        <v>2164758.70143874</v>
       </c>
       <c r="AF7" t="n">
         <v>2.45004377543567e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>67</v>
+        <v>66.84895833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1536524.481551359</v>
+        <v>1958157.169231345</v>
       </c>
     </row>
     <row r="8">
@@ -41545,28 +41545,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1226.871328281657</v>
+        <v>1557.770856597028</v>
       </c>
       <c r="AB8" t="n">
-        <v>1678.659477097964</v>
+        <v>2131.410809995951</v>
       </c>
       <c r="AC8" t="n">
-        <v>1518.450572617107</v>
+        <v>1927.991953743797</v>
       </c>
       <c r="AD8" t="n">
-        <v>1226871.328281657</v>
+        <v>1557770.856597028</v>
       </c>
       <c r="AE8" t="n">
-        <v>1678659.477097964</v>
+        <v>2131410.809995951</v>
       </c>
       <c r="AF8" t="n">
         <v>2.479034283148089e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>67</v>
+        <v>66.06770833333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1518450.572617107</v>
+        <v>1927991.953743797</v>
       </c>
     </row>
     <row r="9">
@@ -41651,28 +41651,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1206.184707659679</v>
+        <v>1537.151555782754</v>
       </c>
       <c r="AB9" t="n">
-        <v>1650.355130133682</v>
+        <v>2103.19857296251</v>
       </c>
       <c r="AC9" t="n">
-        <v>1492.847552801695</v>
+        <v>1902.472253016704</v>
       </c>
       <c r="AD9" t="n">
-        <v>1206184.707659679</v>
+        <v>1537151.555782754</v>
       </c>
       <c r="AE9" t="n">
-        <v>1650355.130133681</v>
+        <v>2103198.57296251</v>
       </c>
       <c r="AF9" t="n">
         <v>2.496642400630686e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>66</v>
+        <v>65.59895833333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1492847.552801695</v>
+        <v>1902472.253016704</v>
       </c>
     </row>
     <row r="10">
@@ -41757,28 +41757,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1196.300530228819</v>
+        <v>1517.497895170011</v>
       </c>
       <c r="AB10" t="n">
-        <v>1636.831162513646</v>
+        <v>2076.307567453842</v>
       </c>
       <c r="AC10" t="n">
-        <v>1480.614293670308</v>
+        <v>1878.14768733202</v>
       </c>
       <c r="AD10" t="n">
-        <v>1196300.530228819</v>
+        <v>1517497.895170011</v>
       </c>
       <c r="AE10" t="n">
-        <v>1636831.162513646</v>
+        <v>2076307.567453842</v>
       </c>
       <c r="AF10" t="n">
         <v>2.512741250900489e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>66</v>
+        <v>65.18229166666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>1480614.293670308</v>
+        <v>1878147.68733202</v>
       </c>
     </row>
     <row r="11">
@@ -41863,28 +41863,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1174.884178363695</v>
+        <v>1505.81686106799</v>
       </c>
       <c r="AB11" t="n">
-        <v>1607.528365069022</v>
+        <v>2060.325061264602</v>
       </c>
       <c r="AC11" t="n">
-        <v>1454.108114087064</v>
+        <v>1863.690529101893</v>
       </c>
       <c r="AD11" t="n">
-        <v>1174884.178363695</v>
+        <v>1505816.86106799</v>
       </c>
       <c r="AE11" t="n">
-        <v>1607528.365069022</v>
+        <v>2060325.061264602</v>
       </c>
       <c r="AF11" t="n">
         <v>2.530349368383087e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>65</v>
+        <v>64.71354166666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>1454108.114087064</v>
+        <v>1863690.529101893</v>
       </c>
     </row>
     <row r="12">
@@ -41969,28 +41969,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1162.839418193688</v>
+        <v>1484.002617716099</v>
       </c>
       <c r="AB12" t="n">
-        <v>1591.048192827102</v>
+        <v>2030.477851134051</v>
       </c>
       <c r="AC12" t="n">
-        <v>1439.200786353847</v>
+        <v>1836.691894815378</v>
       </c>
       <c r="AD12" t="n">
-        <v>1162839.418193688</v>
+        <v>1484002.617716099</v>
       </c>
       <c r="AE12" t="n">
-        <v>1591048.192827102</v>
+        <v>2030477.851134051</v>
       </c>
       <c r="AF12" t="n">
         <v>2.541731758612908e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>65</v>
+        <v>64.42708333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>1439200.786353847</v>
+        <v>1836691.894815378</v>
       </c>
     </row>
     <row r="13">
@@ -42075,28 +42075,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1158.025383009831</v>
+        <v>1479.188582532243</v>
       </c>
       <c r="AB13" t="n">
-        <v>1584.461417508306</v>
+        <v>2023.891075815255</v>
       </c>
       <c r="AC13" t="n">
-        <v>1433.242643626879</v>
+        <v>1830.733752088411</v>
       </c>
       <c r="AD13" t="n">
-        <v>1158025.383009831</v>
+        <v>1479188.582532243</v>
       </c>
       <c r="AE13" t="n">
-        <v>1584461.417508306</v>
+        <v>2023891.075815255</v>
       </c>
       <c r="AF13" t="n">
         <v>2.546699763188355e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>65</v>
+        <v>64.296875</v>
       </c>
       <c r="AH13" t="n">
-        <v>1433242.643626879</v>
+        <v>1830733.752088411</v>
       </c>
     </row>
     <row r="14">
@@ -42181,28 +42181,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1136.43717821367</v>
+        <v>1457.667697543786</v>
       </c>
       <c r="AB14" t="n">
-        <v>1554.923483301821</v>
+        <v>1994.44525153961</v>
       </c>
       <c r="AC14" t="n">
-        <v>1406.52376840431</v>
+        <v>1804.09819595416</v>
       </c>
       <c r="AD14" t="n">
-        <v>1136437.17821367</v>
+        <v>1457667.697543786</v>
       </c>
       <c r="AE14" t="n">
-        <v>1554923.483301821</v>
+        <v>1994445.25153961</v>
       </c>
       <c r="AF14" t="n">
         <v>2.560723371040567e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>64</v>
+        <v>63.95833333333334</v>
       </c>
       <c r="AH14" t="n">
-        <v>1406523.76840431</v>
+        <v>1804098.19595416</v>
       </c>
     </row>
     <row r="15">
@@ -42287,28 +42287,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1129.01027432004</v>
+        <v>1450.240793650156</v>
       </c>
       <c r="AB15" t="n">
-        <v>1544.76166574268</v>
+        <v>1984.28343398047</v>
       </c>
       <c r="AC15" t="n">
-        <v>1397.331780450813</v>
+        <v>1794.906208000664</v>
       </c>
       <c r="AD15" t="n">
-        <v>1129010.27432004</v>
+        <v>1450240.793650156</v>
       </c>
       <c r="AE15" t="n">
-        <v>1544761.66574268</v>
+        <v>1984283.43398047</v>
       </c>
       <c r="AF15" t="n">
         <v>2.563930563867754e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>64</v>
+        <v>63.88020833333334</v>
       </c>
       <c r="AH15" t="n">
-        <v>1397331.780450813</v>
+        <v>1794906.208000664</v>
       </c>
     </row>
     <row r="16">
@@ -42393,28 +42393,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1122.562440863366</v>
+        <v>1443.792960193482</v>
       </c>
       <c r="AB16" t="n">
-        <v>1535.939455548923</v>
+        <v>1975.461223786712</v>
       </c>
       <c r="AC16" t="n">
-        <v>1389.351549615898</v>
+        <v>1786.925977165748</v>
       </c>
       <c r="AD16" t="n">
-        <v>1122562.440863366</v>
+        <v>1443792.960193482</v>
       </c>
       <c r="AE16" t="n">
-        <v>1535939.455548923</v>
+        <v>1975461.223786712</v>
       </c>
       <c r="AF16" t="n">
         <v>2.571162469262392e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>64</v>
+        <v>63.69791666666666</v>
       </c>
       <c r="AH16" t="n">
-        <v>1389351.549615898</v>
+        <v>1786925.977165748</v>
       </c>
     </row>
     <row r="17">
@@ -42499,28 +42499,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1121.610597957117</v>
+        <v>1442.841117287232</v>
       </c>
       <c r="AB17" t="n">
-        <v>1534.637102092247</v>
+        <v>1974.158870330037</v>
       </c>
       <c r="AC17" t="n">
-        <v>1388.173490945263</v>
+        <v>1785.747918495114</v>
       </c>
       <c r="AD17" t="n">
-        <v>1121610.597957117</v>
+        <v>1442841.117287233</v>
       </c>
       <c r="AE17" t="n">
-        <v>1534637.102092247</v>
+        <v>1974158.870330037</v>
       </c>
       <c r="AF17" t="n">
         <v>2.571476899931724e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>64</v>
+        <v>63.69791666666666</v>
       </c>
       <c r="AH17" t="n">
-        <v>1388173.490945263</v>
+        <v>1785747.918495114</v>
       </c>
     </row>
     <row r="18">
@@ -42605,28 +42605,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1123.593138630955</v>
+        <v>1444.823657961071</v>
       </c>
       <c r="AB18" t="n">
-        <v>1537.349701705715</v>
+        <v>1976.871469943504</v>
       </c>
       <c r="AC18" t="n">
-        <v>1390.627203858779</v>
+        <v>1788.20163140863</v>
       </c>
       <c r="AD18" t="n">
-        <v>1123593.138630955</v>
+        <v>1444823.657961071</v>
       </c>
       <c r="AE18" t="n">
-        <v>1537349.701705715</v>
+        <v>1976871.469943504</v>
       </c>
       <c r="AF18" t="n">
         <v>2.570785152459194e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>64</v>
+        <v>63.69791666666666</v>
       </c>
       <c r="AH18" t="n">
-        <v>1390627.203858779</v>
+        <v>1788201.631408629</v>
       </c>
     </row>
   </sheetData>
@@ -42902,28 +42902,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>809.7300128013649</v>
+        <v>1125.700109484603</v>
       </c>
       <c r="AB2" t="n">
-        <v>1107.908326281806</v>
+        <v>1540.23255218067</v>
       </c>
       <c r="AC2" t="n">
-        <v>1002.171110580572</v>
+        <v>1393.23491913051</v>
       </c>
       <c r="AD2" t="n">
-        <v>809730.0128013649</v>
+        <v>1125700.109484603</v>
       </c>
       <c r="AE2" t="n">
-        <v>1107908.326281806</v>
+        <v>1540232.55218067</v>
       </c>
       <c r="AF2" t="n">
         <v>5.850709258968516e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>68</v>
+        <v>67.91666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1002171.110580572</v>
+        <v>1393234.91913051</v>
       </c>
     </row>
   </sheetData>
@@ -43199,28 +43199,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1293.027126740233</v>
+        <v>1670.581625096767</v>
       </c>
       <c r="AB2" t="n">
-        <v>1769.176759136832</v>
+        <v>2285.763480317151</v>
       </c>
       <c r="AC2" t="n">
-        <v>1600.329012299988</v>
+        <v>2067.613421844875</v>
       </c>
       <c r="AD2" t="n">
-        <v>1293027.126740233</v>
+        <v>1670581.625096767</v>
       </c>
       <c r="AE2" t="n">
-        <v>1769176.759136832</v>
+        <v>2285763.480317151</v>
       </c>
       <c r="AF2" t="n">
         <v>2.80084045502412e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>78</v>
+        <v>77.34375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1600329.012299988</v>
+        <v>2067613.421844875</v>
       </c>
     </row>
     <row r="3">
@@ -43305,28 +43305,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1098.245240257859</v>
+        <v>1428.618364730602</v>
       </c>
       <c r="AB3" t="n">
-        <v>1502.667588881293</v>
+        <v>1954.698672818496</v>
       </c>
       <c r="AC3" t="n">
-        <v>1359.255103205668</v>
+        <v>1768.144974921516</v>
       </c>
       <c r="AD3" t="n">
-        <v>1098245.240257859</v>
+        <v>1428618.364730602</v>
       </c>
       <c r="AE3" t="n">
-        <v>1502667.588881293</v>
+        <v>1954698.672818496</v>
       </c>
       <c r="AF3" t="n">
         <v>3.172123358995245e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>69</v>
+        <v>68.28125</v>
       </c>
       <c r="AH3" t="n">
-        <v>1359255.103205668</v>
+        <v>1768144.974921516</v>
       </c>
     </row>
     <row r="4">
@@ -43411,28 +43411,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1031.390340028189</v>
+        <v>1352.387676448122</v>
       </c>
       <c r="AB4" t="n">
-        <v>1411.19376495702</v>
+        <v>1850.396482049792</v>
       </c>
       <c r="AC4" t="n">
-        <v>1276.51141265241</v>
+        <v>1673.797238850733</v>
       </c>
       <c r="AD4" t="n">
-        <v>1031390.340028189</v>
+        <v>1352387.676448122</v>
       </c>
       <c r="AE4" t="n">
-        <v>1411193.76495702</v>
+        <v>1850396.482049793</v>
       </c>
       <c r="AF4" t="n">
         <v>3.305865050210651e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>66</v>
+        <v>65.52083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1276511.41265241</v>
+        <v>1673797.238850733</v>
       </c>
     </row>
     <row r="5">
@@ -43517,28 +43517,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>996.7157787119157</v>
+        <v>1308.202687463629</v>
       </c>
       <c r="AB5" t="n">
-        <v>1363.750500430412</v>
+        <v>1789.940630817071</v>
       </c>
       <c r="AC5" t="n">
-        <v>1233.596066705182</v>
+        <v>1619.111209209342</v>
       </c>
       <c r="AD5" t="n">
-        <v>996715.7787119157</v>
+        <v>1308202.687463629</v>
       </c>
       <c r="AE5" t="n">
-        <v>1363750.500430412</v>
+        <v>1789940.630817071</v>
       </c>
       <c r="AF5" t="n">
         <v>3.373484450060231e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>65</v>
+        <v>64.21875</v>
       </c>
       <c r="AH5" t="n">
-        <v>1233596.066705182</v>
+        <v>1619111.209209342</v>
       </c>
     </row>
     <row r="6">
@@ -43623,28 +43623,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>967.5237083645437</v>
+        <v>1269.601674674523</v>
       </c>
       <c r="AB6" t="n">
-        <v>1323.808621917887</v>
+        <v>1737.125022162521</v>
       </c>
       <c r="AC6" t="n">
-        <v>1197.466185019113</v>
+        <v>1571.33624811761</v>
       </c>
       <c r="AD6" t="n">
-        <v>967523.7083645437</v>
+        <v>1269601.674674523</v>
       </c>
       <c r="AE6" t="n">
-        <v>1323808.621917887</v>
+        <v>1737125.022162521</v>
       </c>
       <c r="AF6" t="n">
         <v>3.4180650137987e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>64</v>
+        <v>63.359375</v>
       </c>
       <c r="AH6" t="n">
-        <v>1197466.185019114</v>
+        <v>1571336.24811761</v>
       </c>
     </row>
     <row r="7">
@@ -43729,28 +43729,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>963.9502966512356</v>
+        <v>1266.028262961215</v>
       </c>
       <c r="AB7" t="n">
-        <v>1318.91932236394</v>
+        <v>1732.235722608574</v>
       </c>
       <c r="AC7" t="n">
-        <v>1193.04351335242</v>
+        <v>1566.913576450917</v>
       </c>
       <c r="AD7" t="n">
-        <v>963950.2966512355</v>
+        <v>1266028.262961215</v>
       </c>
       <c r="AE7" t="n">
-        <v>1318919.32236394</v>
+        <v>1732235.722608574</v>
       </c>
       <c r="AF7" t="n">
         <v>3.426382283152892e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>64</v>
+        <v>63.203125</v>
       </c>
       <c r="AH7" t="n">
-        <v>1193043.51335242</v>
+        <v>1566913.576450917</v>
       </c>
     </row>
     <row r="8">
@@ -43835,28 +43835,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>966.2133684333128</v>
+        <v>1268.291334743292</v>
       </c>
       <c r="AB8" t="n">
-        <v>1322.015757015859</v>
+        <v>1735.332157260493</v>
       </c>
       <c r="AC8" t="n">
-        <v>1195.844428627033</v>
+        <v>1569.71449172553</v>
       </c>
       <c r="AD8" t="n">
-        <v>966213.3684333127</v>
+        <v>1268291.334743292</v>
       </c>
       <c r="AE8" t="n">
-        <v>1322015.757015859</v>
+        <v>1735332.157260493</v>
       </c>
       <c r="AF8" t="n">
         <v>3.425966419685182e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>64</v>
+        <v>63.22916666666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>1195844.428627033</v>
+        <v>1569714.49172553</v>
       </c>
     </row>
   </sheetData>
@@ -44132,28 +44132,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1518.301320610609</v>
+        <v>1929.095751585301</v>
       </c>
       <c r="AB2" t="n">
-        <v>2077.406849586297</v>
+        <v>2639.473913017111</v>
       </c>
       <c r="AC2" t="n">
-        <v>1879.142055520605</v>
+        <v>2387.56622728366</v>
       </c>
       <c r="AD2" t="n">
-        <v>1518301.320610609</v>
+        <v>1929095.751585301</v>
       </c>
       <c r="AE2" t="n">
-        <v>2077406.849586297</v>
+        <v>2639473.91301711</v>
       </c>
       <c r="AF2" t="n">
         <v>2.303566318757417e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>84</v>
+        <v>83.72395833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1879142.055520606</v>
+        <v>2387566.22728366</v>
       </c>
     </row>
     <row r="3">
@@ -44238,28 +44238,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1237.750693430981</v>
+        <v>1591.113951484455</v>
       </c>
       <c r="AB3" t="n">
-        <v>1693.545104458985</v>
+        <v>2177.032303414457</v>
       </c>
       <c r="AC3" t="n">
-        <v>1531.915536594901</v>
+        <v>1969.259395860608</v>
       </c>
       <c r="AD3" t="n">
-        <v>1237750.693430981</v>
+        <v>1591113.951484455</v>
       </c>
       <c r="AE3" t="n">
-        <v>1693545.104458985</v>
+        <v>2177032.303414457</v>
       </c>
       <c r="AF3" t="n">
         <v>2.705120349759948e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>72</v>
+        <v>71.30208333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1531915.536594901</v>
+        <v>1969259.395860608</v>
       </c>
     </row>
     <row r="4">
@@ -44344,28 +44344,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1149.605231014033</v>
+        <v>1483.960078395748</v>
       </c>
       <c r="AB4" t="n">
-        <v>1572.940594076767</v>
+        <v>2030.419646959244</v>
       </c>
       <c r="AC4" t="n">
-        <v>1422.821351414069</v>
+        <v>1836.639245565325</v>
       </c>
       <c r="AD4" t="n">
-        <v>1149605.231014033</v>
+        <v>1483960.078395749</v>
       </c>
       <c r="AE4" t="n">
-        <v>1572940.594076767</v>
+        <v>2030419.646959244</v>
       </c>
       <c r="AF4" t="n">
         <v>2.851166928354008e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>68</v>
+        <v>67.65625</v>
       </c>
       <c r="AH4" t="n">
-        <v>1422821.351414069</v>
+        <v>1836639.245565325</v>
       </c>
     </row>
     <row r="5">
@@ -44450,28 +44450,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1102.397498036641</v>
+        <v>1427.197397469234</v>
       </c>
       <c r="AB5" t="n">
-        <v>1508.348891158907</v>
+        <v>1952.754442722842</v>
       </c>
       <c r="AC5" t="n">
-        <v>1364.394189967665</v>
+        <v>1766.386299417447</v>
       </c>
       <c r="AD5" t="n">
-        <v>1102397.498036641</v>
+        <v>1427197.397469234</v>
       </c>
       <c r="AE5" t="n">
-        <v>1508348.891158907</v>
+        <v>1952754.442722842</v>
       </c>
       <c r="AF5" t="n">
         <v>2.928781945781277e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>66</v>
+        <v>65.859375</v>
       </c>
       <c r="AH5" t="n">
-        <v>1364394.189967665</v>
+        <v>1766386.299417447</v>
       </c>
     </row>
     <row r="6">
@@ -44556,28 +44556,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1074.01046168836</v>
+        <v>1398.776195702172</v>
       </c>
       <c r="AB6" t="n">
-        <v>1469.508495679531</v>
+        <v>1913.867300610218</v>
       </c>
       <c r="AC6" t="n">
-        <v>1329.260667320003</v>
+        <v>1731.210491569605</v>
       </c>
       <c r="AD6" t="n">
-        <v>1074010.46168836</v>
+        <v>1398776.195702172</v>
       </c>
       <c r="AE6" t="n">
-        <v>1469508.495679531</v>
+        <v>1913867.300610218</v>
       </c>
       <c r="AF6" t="n">
         <v>2.971959002231752e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>65</v>
+        <v>64.89583333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1329260.667320003</v>
+        <v>1731210.491569605</v>
       </c>
     </row>
     <row r="7">
@@ -44662,28 +44662,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1057.399217866688</v>
+        <v>1372.576849542454</v>
       </c>
       <c r="AB7" t="n">
-        <v>1446.780259046363</v>
+        <v>1878.020199360914</v>
       </c>
       <c r="AC7" t="n">
-        <v>1308.701581691824</v>
+        <v>1698.784587351812</v>
       </c>
       <c r="AD7" t="n">
-        <v>1057399.217866688</v>
+        <v>1372576.849542454</v>
       </c>
       <c r="AE7" t="n">
-        <v>1446780.259046363</v>
+        <v>1878020.199360914</v>
       </c>
       <c r="AF7" t="n">
         <v>3.004915760585888e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>65</v>
+        <v>64.19270833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1308701.581691824</v>
+        <v>1698784.587351812</v>
       </c>
     </row>
     <row r="8">
@@ -44768,28 +44768,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1033.131950655398</v>
+        <v>1348.376902138869</v>
       </c>
       <c r="AB8" t="n">
-        <v>1413.576713451606</v>
+        <v>1844.908763696999</v>
       </c>
       <c r="AC8" t="n">
-        <v>1278.666935887162</v>
+        <v>1668.833260635469</v>
       </c>
       <c r="AD8" t="n">
-        <v>1033131.950655398</v>
+        <v>1348376.902138869</v>
       </c>
       <c r="AE8" t="n">
-        <v>1413576.713451606</v>
+        <v>1844908.763696999</v>
       </c>
       <c r="AF8" t="n">
         <v>3.028096581630482e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>64</v>
+        <v>63.69791666666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>1278666.935887162</v>
+        <v>1668833.260635469</v>
       </c>
     </row>
     <row r="9">
@@ -44874,28 +44874,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1023.170390485456</v>
+        <v>1328.827239630881</v>
       </c>
       <c r="AB9" t="n">
-        <v>1399.946867354073</v>
+        <v>1818.16005298333</v>
       </c>
       <c r="AC9" t="n">
-        <v>1266.337903171568</v>
+        <v>1644.637409330261</v>
       </c>
       <c r="AD9" t="n">
-        <v>1023170.390485456</v>
+        <v>1328827.239630881</v>
       </c>
       <c r="AE9" t="n">
-        <v>1399946.867354073</v>
+        <v>1818160.05298333</v>
       </c>
       <c r="AF9" t="n">
         <v>3.043649209168389e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>64</v>
+        <v>63.359375</v>
       </c>
       <c r="AH9" t="n">
-        <v>1266337.903171568</v>
+        <v>1644637.409330261</v>
       </c>
     </row>
     <row r="10">
@@ -44980,28 +44980,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1018.509592298164</v>
+        <v>1324.166441443589</v>
       </c>
       <c r="AB10" t="n">
-        <v>1393.569757654315</v>
+        <v>1811.782943283572</v>
       </c>
       <c r="AC10" t="n">
-        <v>1260.569415871226</v>
+        <v>1638.868922029919</v>
       </c>
       <c r="AD10" t="n">
-        <v>1018509.592298164</v>
+        <v>1324166.441443589</v>
       </c>
       <c r="AE10" t="n">
-        <v>1393569.757654315</v>
+        <v>1811782.943283572</v>
       </c>
       <c r="AF10" t="n">
         <v>3.04905559874109e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>64</v>
+        <v>63.25520833333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>1260569.415871226</v>
+        <v>1638868.922029919</v>
       </c>
     </row>
     <row r="11">
@@ -45086,28 +45086,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1020.485407790639</v>
+        <v>1326.142256936063</v>
       </c>
       <c r="AB11" t="n">
-        <v>1396.273155577946</v>
+        <v>1814.486341207203</v>
       </c>
       <c r="AC11" t="n">
-        <v>1263.014805291268</v>
+        <v>1641.314311449962</v>
       </c>
       <c r="AD11" t="n">
-        <v>1020485.407790639</v>
+        <v>1326142.256936063</v>
       </c>
       <c r="AE11" t="n">
-        <v>1396273.155577946</v>
+        <v>1814486.341207203</v>
       </c>
       <c r="AF11" t="n">
         <v>3.048907478478824e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>64</v>
+        <v>63.25520833333334</v>
       </c>
       <c r="AH11" t="n">
-        <v>1263014.805291268</v>
+        <v>1641314.311449962</v>
       </c>
     </row>
   </sheetData>
